--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_20_27.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_20_27.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1436219.489119668</v>
+        <v>1433738.569294208</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.4937673433</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10453606.13931608</v>
+        <v>10453606.13931609</v>
       </c>
     </row>
     <row r="11">
@@ -1370,25 +1370,25 @@
         <v>355.8136950763541</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>338.352745183881</v>
       </c>
       <c r="D11" t="n">
-        <v>250.76326598842</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>355.0102234851353</v>
       </c>
       <c r="F11" t="n">
-        <v>379.955899154585</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>384.001579066327</v>
+        <v>354.0471768951641</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>14.6567831857995</v>
+        <v>14.65678318579947</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,22 +1418,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>82.26761520104941</v>
+        <v>82.26761520104934</v>
       </c>
       <c r="T11" t="n">
         <v>176.9978235524937</v>
       </c>
       <c r="U11" t="n">
-        <v>224.0750253717756</v>
+        <v>224.0750253717755</v>
       </c>
       <c r="V11" t="n">
-        <v>300.8321118830085</v>
+        <v>300.8321118830084</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>322.3208221302865</v>
       </c>
       <c r="X11" t="n">
-        <v>342.8109540913426</v>
+        <v>342.8109540913425</v>
       </c>
       <c r="Y11" t="n">
         <v>359.3177920689271</v>
@@ -1464,10 +1464,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H12" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824763</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>152.9118335948108</v>
       </c>
       <c r="C13" t="n">
-        <v>140.3266745115014</v>
+        <v>140.3266745115013</v>
       </c>
       <c r="D13" t="n">
-        <v>121.6953264310859</v>
+        <v>121.6953264310858</v>
       </c>
       <c r="E13" t="n">
-        <v>119.5138160594427</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>118.5009014358048</v>
+        <v>16.82824115216685</v>
       </c>
       <c r="G13" t="n">
-        <v>139.1056616719018</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>117.8348683271944</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>69.43227382271166</v>
+        <v>69.43227382271161</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>62.01200608292088</v>
+        <v>62.01200608292083</v>
       </c>
       <c r="S13" t="n">
         <v>162.8488787443154</v>
@@ -1588,10 +1588,10 @@
         <v>225.2174967367015</v>
       </c>
       <c r="W13" t="n">
-        <v>133.1771878040089</v>
+        <v>259.6028517494645</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>198.7895088019106</v>
       </c>
       <c r="Y13" t="n">
         <v>191.6645067649683</v>
@@ -1607,25 +1607,25 @@
         <v>355.8136950763541</v>
       </c>
       <c r="C14" t="n">
-        <v>338.3527451838811</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>327.7628950335564</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>355.0102234851353</v>
       </c>
       <c r="F14" t="n">
-        <v>379.955899154585</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>384.001579066327</v>
+        <v>384.0015790663269</v>
       </c>
       <c r="H14" t="n">
-        <v>267.687617800194</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>14.6567831857995</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.26761520104938</v>
+        <v>82.26761520104937</v>
       </c>
       <c r="T14" t="n">
         <v>176.9978235524937</v>
       </c>
       <c r="U14" t="n">
-        <v>216.9762247997769</v>
+        <v>224.0750253717755</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>300.8321118830084</v>
       </c>
       <c r="W14" t="n">
-        <v>322.3208221302866</v>
+        <v>322.3208221302865</v>
       </c>
       <c r="X14" t="n">
-        <v>342.8109540913426</v>
+        <v>342.8109540913425</v>
       </c>
       <c r="Y14" t="n">
-        <v>359.3177920689271</v>
+        <v>339.9532400480874</v>
       </c>
     </row>
     <row r="15">
@@ -1701,10 +1701,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H15" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I15" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247588</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,10 +1731,10 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098773</v>
       </c>
       <c r="S15" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T15" t="n">
         <v>190.7165703189231</v>
@@ -1762,25 +1762,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>152.9118335948108</v>
       </c>
       <c r="C16" t="n">
-        <v>140.3266745115014</v>
+        <v>140.3266745115013</v>
       </c>
       <c r="D16" t="n">
-        <v>121.6953264310859</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>119.5138160594427</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>118.5009014358048</v>
+        <v>68.85017973406258</v>
       </c>
       <c r="G16" t="n">
-        <v>139.1056616719018</v>
+        <v>139.1056616719017</v>
       </c>
       <c r="H16" t="n">
-        <v>117.8348683271944</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>62.01200608292088</v>
+        <v>62.01200608292086</v>
       </c>
       <c r="S16" t="n">
         <v>162.8488787443154</v>
@@ -1828,10 +1828,10 @@
         <v>259.6028517494645</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>198.7895088019106</v>
       </c>
       <c r="Y16" t="n">
-        <v>134.6711166422246</v>
+        <v>191.6645067649683</v>
       </c>
     </row>
     <row r="17">
@@ -1841,22 +1841,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>308.8385584577616</v>
+        <v>308.8385584577615</v>
       </c>
       <c r="C17" t="n">
-        <v>212.1824655163005</v>
+        <v>291.3776085652885</v>
       </c>
       <c r="D17" t="n">
         <v>280.7877584149639</v>
       </c>
       <c r="E17" t="n">
-        <v>308.0350868665428</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>332.9807625359924</v>
       </c>
       <c r="G17" t="n">
-        <v>337.0264424477344</v>
+        <v>312.0094110008728</v>
       </c>
       <c r="H17" t="n">
         <v>220.7124811816014</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>35.29247858245679</v>
+        <v>35.29247858245675</v>
       </c>
       <c r="T17" t="n">
         <v>130.0226869339011</v>
@@ -1901,10 +1901,10 @@
         <v>177.0998887531829</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>253.8569752644158</v>
       </c>
       <c r="W17" t="n">
-        <v>275.345685511694</v>
+        <v>275.3456855116939</v>
       </c>
       <c r="X17" t="n">
         <v>295.83581747275</v>
@@ -1938,10 +1938,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H18" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247633</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>105.9366969762183</v>
+        <v>105.9366969762182</v>
       </c>
       <c r="C19" t="n">
-        <v>93.35153789290879</v>
+        <v>93.35153789290875</v>
       </c>
       <c r="D19" t="n">
-        <v>74.72018981249332</v>
+        <v>74.72018981249327</v>
       </c>
       <c r="E19" t="n">
-        <v>72.53867944085013</v>
+        <v>72.53867944085009</v>
       </c>
       <c r="F19" t="n">
-        <v>71.52576481721221</v>
+        <v>71.52576481721216</v>
       </c>
       <c r="G19" t="n">
-        <v>154.5302192482731</v>
+        <v>92.13052505330914</v>
       </c>
       <c r="H19" t="n">
-        <v>70.85973170860174</v>
+        <v>70.8597317086017</v>
       </c>
       <c r="I19" t="n">
-        <v>22.45713720411906</v>
+        <v>22.45713720411903</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,28 +2047,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>15.03686946432829</v>
+        <v>15.03686946432826</v>
       </c>
       <c r="S19" t="n">
-        <v>115.8737421257229</v>
+        <v>115.8737421257228</v>
       </c>
       <c r="T19" t="n">
-        <v>145.6536660704502</v>
+        <v>145.6536660704501</v>
       </c>
       <c r="U19" t="n">
-        <v>212.3165549998938</v>
+        <v>274.7162491948574</v>
       </c>
       <c r="V19" t="n">
-        <v>178.242360118109</v>
+        <v>178.2423601181089</v>
       </c>
       <c r="W19" t="n">
-        <v>212.627715130872</v>
+        <v>212.6277151308719</v>
       </c>
       <c r="X19" t="n">
         <v>151.8143721833181</v>
       </c>
       <c r="Y19" t="n">
-        <v>144.6893701463758</v>
+        <v>144.6893701463757</v>
       </c>
     </row>
     <row r="20">
@@ -2078,7 +2078,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>308.8385584577616</v>
+        <v>308.8385584577615</v>
       </c>
       <c r="C20" t="n">
         <v>291.3776085652885</v>
@@ -2087,16 +2087,16 @@
         <v>280.7877584149639</v>
       </c>
       <c r="E20" t="n">
-        <v>308.0350868665428</v>
+        <v>308.0350868665427</v>
       </c>
       <c r="F20" t="n">
-        <v>220.6411254041893</v>
+        <v>332.9807625359924</v>
       </c>
       <c r="G20" t="n">
-        <v>337.0264424477344</v>
+        <v>3.974324134330733</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>220.7124811816014</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,25 +2129,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>35.29247858245685</v>
+        <v>35.29247858245677</v>
       </c>
       <c r="T20" t="n">
-        <v>130.0226869339012</v>
+        <v>130.0226869339011</v>
       </c>
       <c r="U20" t="n">
-        <v>177.099888753183</v>
+        <v>177.0998887531829</v>
       </c>
       <c r="V20" t="n">
-        <v>253.8569752644159</v>
+        <v>253.8569752644158</v>
       </c>
       <c r="W20" t="n">
-        <v>275.345685511694</v>
+        <v>275.3456855116939</v>
       </c>
       <c r="X20" t="n">
         <v>295.83581747275</v>
       </c>
       <c r="Y20" t="n">
-        <v>312.3426554503346</v>
+        <v>312.3426554503345</v>
       </c>
     </row>
     <row r="21">
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>105.9366969762183</v>
+        <v>105.9366969762182</v>
       </c>
       <c r="C22" t="n">
-        <v>93.35153789290884</v>
+        <v>93.35153789290875</v>
       </c>
       <c r="D22" t="n">
-        <v>74.72018981249336</v>
+        <v>74.72018981249327</v>
       </c>
       <c r="E22" t="n">
-        <v>72.53867944085017</v>
+        <v>72.53867944085009</v>
       </c>
       <c r="F22" t="n">
-        <v>71.52576481721225</v>
+        <v>71.52576481721216</v>
       </c>
       <c r="G22" t="n">
-        <v>92.13052505330923</v>
+        <v>92.13052505330914</v>
       </c>
       <c r="H22" t="n">
-        <v>70.85973170860179</v>
+        <v>70.8597317086017</v>
       </c>
       <c r="I22" t="n">
-        <v>22.45713720411911</v>
+        <v>22.45713720411903</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,28 +2284,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>15.03686946432835</v>
+        <v>15.03686946432826</v>
       </c>
       <c r="S22" t="n">
-        <v>115.8737421257229</v>
+        <v>115.8737421257228</v>
       </c>
       <c r="T22" t="n">
-        <v>145.6536660704502</v>
+        <v>145.6536660704501</v>
       </c>
       <c r="U22" t="n">
         <v>212.3165549998938</v>
       </c>
       <c r="V22" t="n">
-        <v>178.242360118109</v>
+        <v>178.2423601181089</v>
       </c>
       <c r="W22" t="n">
-        <v>212.627715130872</v>
+        <v>212.6277151308719</v>
       </c>
       <c r="X22" t="n">
         <v>151.8143721833181</v>
       </c>
       <c r="Y22" t="n">
-        <v>207.0890643413383</v>
+        <v>207.0890643413394</v>
       </c>
     </row>
     <row r="23">
@@ -2315,7 +2315,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>308.8385584577616</v>
+        <v>308.8385584577615</v>
       </c>
       <c r="C23" t="n">
         <v>291.3776085652885</v>
@@ -2324,7 +2324,7 @@
         <v>280.7877584149639</v>
       </c>
       <c r="E23" t="n">
-        <v>308.0350868665428</v>
+        <v>308.0350868665427</v>
       </c>
       <c r="F23" t="n">
         <v>332.9807625359924</v>
@@ -2333,7 +2333,7 @@
         <v>337.0264424477344</v>
       </c>
       <c r="H23" t="n">
-        <v>220.7124811816015</v>
+        <v>220.7124811816014</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2366,25 +2366,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>35.29247858245687</v>
+        <v>35.29247858245675</v>
       </c>
       <c r="T23" t="n">
-        <v>130.0226869339012</v>
+        <v>130.0226869339011</v>
       </c>
       <c r="U23" t="n">
-        <v>177.099888753183</v>
+        <v>177.0998887531829</v>
       </c>
       <c r="V23" t="n">
-        <v>253.8569752644159</v>
+        <v>253.8569752644158</v>
       </c>
       <c r="W23" t="n">
-        <v>275.345685511694</v>
+        <v>275.3456855116939</v>
       </c>
       <c r="X23" t="n">
         <v>295.83581747275</v>
       </c>
       <c r="Y23" t="n">
-        <v>312.3426554503346</v>
+        <v>312.3426554503345</v>
       </c>
     </row>
     <row r="24">
@@ -2415,7 +2415,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I24" t="n">
-        <v>18.81721868247717</v>
+        <v>18.8172186824763</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>105.9366969762183</v>
+        <v>168.336391171182</v>
       </c>
       <c r="C25" t="n">
-        <v>93.35153789290884</v>
+        <v>93.35153789290875</v>
       </c>
       <c r="D25" t="n">
-        <v>74.72018981249336</v>
+        <v>74.72018981249327</v>
       </c>
       <c r="E25" t="n">
-        <v>72.53867944085017</v>
+        <v>72.53867944085009</v>
       </c>
       <c r="F25" t="n">
-        <v>71.52576481721225</v>
+        <v>71.52576481721216</v>
       </c>
       <c r="G25" t="n">
-        <v>92.13052505330923</v>
+        <v>92.13052505330914</v>
       </c>
       <c r="H25" t="n">
-        <v>70.85973170860179</v>
+        <v>70.8597317086017</v>
       </c>
       <c r="I25" t="n">
-        <v>22.45713720411911</v>
+        <v>22.45713720411903</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,28 +2521,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>77.4365636592908</v>
+        <v>15.03686946432826</v>
       </c>
       <c r="S25" t="n">
-        <v>115.8737421257229</v>
+        <v>115.8737421257228</v>
       </c>
       <c r="T25" t="n">
-        <v>145.6536660704502</v>
+        <v>145.6536660704501</v>
       </c>
       <c r="U25" t="n">
         <v>212.3165549998938</v>
       </c>
       <c r="V25" t="n">
-        <v>178.242360118109</v>
+        <v>178.2423601181089</v>
       </c>
       <c r="W25" t="n">
-        <v>212.627715130872</v>
+        <v>212.6277151308719</v>
       </c>
       <c r="X25" t="n">
         <v>151.8143721833181</v>
       </c>
       <c r="Y25" t="n">
-        <v>144.6893701463758</v>
+        <v>144.6893701463757</v>
       </c>
     </row>
     <row r="26">
@@ -2561,7 +2561,7 @@
         <v>307.7079050020904</v>
       </c>
       <c r="E26" t="n">
-        <v>334.9552334536692</v>
+        <v>334.9552334536693</v>
       </c>
       <c r="F26" t="n">
         <v>359.9009091231189</v>
@@ -2652,7 +2652,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I27" t="n">
-        <v>18.81721868247657</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>41.95701605145479</v>
+        <v>41.95701605145478</v>
       </c>
       <c r="S28" t="n">
         <v>142.7938887128493</v>
@@ -2801,7 +2801,7 @@
         <v>334.9552334536692</v>
       </c>
       <c r="F29" t="n">
-        <v>359.9009091231189</v>
+        <v>359.9009091231194</v>
       </c>
       <c r="G29" t="n">
         <v>363.9465890348609</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>62.21262516958326</v>
+        <v>62.21262516958328</v>
       </c>
       <c r="T29" t="n">
         <v>156.9428335210276</v>
@@ -2886,10 +2886,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H30" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I30" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -2968,7 +2968,7 @@
         <v>97.77987829572821</v>
       </c>
       <c r="I31" t="n">
-        <v>49.37728379124552</v>
+        <v>49.37728379124554</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.95701605145477</v>
+        <v>41.95701605145479</v>
       </c>
       <c r="S31" t="n">
         <v>142.7938887128493</v>
@@ -3032,16 +3032,16 @@
         <v>318.297755152415</v>
       </c>
       <c r="D32" t="n">
-        <v>307.7079050020903</v>
+        <v>307.7079050020904</v>
       </c>
       <c r="E32" t="n">
         <v>334.9552334536692</v>
       </c>
       <c r="F32" t="n">
-        <v>359.9009091231188</v>
+        <v>359.9009091231189</v>
       </c>
       <c r="G32" t="n">
-        <v>363.9465890348608</v>
+        <v>363.9465890348609</v>
       </c>
       <c r="H32" t="n">
         <v>247.6326277687279</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>62.21262516958326</v>
+        <v>62.21262516958329</v>
       </c>
       <c r="T32" t="n">
         <v>156.9428335210276</v>
@@ -3089,10 +3089,10 @@
         <v>280.7771218515423</v>
       </c>
       <c r="W32" t="n">
-        <v>302.2658320988204</v>
+        <v>302.2658320988205</v>
       </c>
       <c r="X32" t="n">
-        <v>322.7559640598764</v>
+        <v>322.7559640598765</v>
       </c>
       <c r="Y32" t="n">
         <v>339.262802037461</v>
@@ -3126,7 +3126,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I33" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247658</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3187,25 +3187,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C34" t="n">
-        <v>120.2716844800352</v>
+        <v>120.2716844800353</v>
       </c>
       <c r="D34" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E34" t="n">
-        <v>99.45882602797658</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F34" t="n">
-        <v>98.44591140433866</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G34" t="n">
-        <v>119.0506716404356</v>
+        <v>119.0506716404357</v>
       </c>
       <c r="H34" t="n">
-        <v>97.7798782957282</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I34" t="n">
-        <v>49.37728379124552</v>
+        <v>49.37728379124555</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.95701605145476</v>
+        <v>41.95701605145479</v>
       </c>
       <c r="S34" t="n">
         <v>142.7938887128493</v>
@@ -3266,7 +3266,7 @@
         <v>285.0491214353756</v>
       </c>
       <c r="C35" t="n">
-        <v>267.5881715429026</v>
+        <v>267.5881715429025</v>
       </c>
       <c r="D35" t="n">
         <v>256.998321392578</v>
@@ -3281,7 +3281,7 @@
         <v>313.2370054253485</v>
       </c>
       <c r="H35" t="n">
-        <v>196.9230441592155</v>
+        <v>196.9230441592154</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,10 +3314,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>11.50304156007088</v>
+        <v>11.50304156007083</v>
       </c>
       <c r="T35" t="n">
-        <v>106.2332499115152</v>
+        <v>106.2332499115151</v>
       </c>
       <c r="U35" t="n">
         <v>153.310451730797</v>
@@ -3332,7 +3332,7 @@
         <v>272.046380450364</v>
       </c>
       <c r="Y35" t="n">
-        <v>288.5532184279487</v>
+        <v>288.5532184279485</v>
       </c>
     </row>
     <row r="36">
@@ -3421,25 +3421,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>124.3541982182257</v>
+        <v>82.14725995383228</v>
       </c>
       <c r="C37" t="n">
-        <v>69.56210087052287</v>
+        <v>69.56210087052281</v>
       </c>
       <c r="D37" t="n">
-        <v>50.93075279010739</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>90.95618068285802</v>
       </c>
       <c r="F37" t="n">
-        <v>47.73632779482628</v>
+        <v>47.73632779482622</v>
       </c>
       <c r="G37" t="n">
-        <v>68.34108803092326</v>
+        <v>68.3410880309232</v>
       </c>
       <c r="H37" t="n">
-        <v>47.07029468621582</v>
+        <v>47.07029468621576</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3472,16 +3472,16 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>92.08430510333693</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T37" t="n">
         <v>121.8642290480642</v>
       </c>
       <c r="U37" t="n">
-        <v>188.5271179775079</v>
+        <v>188.5271179775078</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>154.452923095723</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3503,7 +3503,7 @@
         <v>285.0491214353756</v>
       </c>
       <c r="C38" t="n">
-        <v>267.5881715429026</v>
+        <v>267.5881715429025</v>
       </c>
       <c r="D38" t="n">
         <v>256.998321392578</v>
@@ -3512,13 +3512,13 @@
         <v>284.2456498441568</v>
       </c>
       <c r="F38" t="n">
-        <v>309.1913255136065</v>
+        <v>309.1913255136064</v>
       </c>
       <c r="G38" t="n">
         <v>313.2370054253485</v>
       </c>
       <c r="H38" t="n">
-        <v>196.9230441592155</v>
+        <v>196.9230441592154</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,25 +3551,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>11.5030415600709</v>
+        <v>11.50304156007083</v>
       </c>
       <c r="T38" t="n">
-        <v>106.2332499115152</v>
+        <v>106.2332499115151</v>
       </c>
       <c r="U38" t="n">
         <v>153.310451730797</v>
       </c>
       <c r="V38" t="n">
-        <v>230.06753824203</v>
+        <v>230.0675382420299</v>
       </c>
       <c r="W38" t="n">
-        <v>251.5562484893081</v>
+        <v>251.556248489308</v>
       </c>
       <c r="X38" t="n">
-        <v>272.0463804503641</v>
+        <v>272.046380450364</v>
       </c>
       <c r="Y38" t="n">
-        <v>288.5532184279487</v>
+        <v>288.5532184279485</v>
       </c>
     </row>
     <row r="39">
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>82.14725995383235</v>
+        <v>82.14725995383228</v>
       </c>
       <c r="C40" t="n">
-        <v>69.56210087052288</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>50.93075279010733</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>48.74924241846415</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>47.73632779482622</v>
       </c>
       <c r="G40" t="n">
-        <v>68.34108803092327</v>
+        <v>68.3410880309232</v>
       </c>
       <c r="H40" t="n">
-        <v>47.07029468621583</v>
+        <v>47.07029468621576</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>50.95950582245193</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,25 +3706,25 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S40" t="n">
-        <v>92.08430510333696</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T40" t="n">
-        <v>121.8642290480643</v>
+        <v>121.8642290480642</v>
       </c>
       <c r="U40" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V40" t="n">
-        <v>154.4529230957231</v>
+        <v>154.452923095723</v>
       </c>
       <c r="W40" t="n">
-        <v>188.8382781084861</v>
+        <v>188.838278108486</v>
       </c>
       <c r="X40" t="n">
-        <v>170.2318734253258</v>
+        <v>128.0249351609321</v>
       </c>
       <c r="Y40" t="n">
         <v>120.8999331239898</v>
@@ -3740,7 +3740,7 @@
         <v>285.0491214353756</v>
       </c>
       <c r="C41" t="n">
-        <v>267.5881715429026</v>
+        <v>267.5881715429025</v>
       </c>
       <c r="D41" t="n">
         <v>256.998321392578</v>
@@ -3749,13 +3749,13 @@
         <v>284.2456498441568</v>
       </c>
       <c r="F41" t="n">
-        <v>309.1913255136065</v>
+        <v>309.1913255136064</v>
       </c>
       <c r="G41" t="n">
         <v>313.2370054253485</v>
       </c>
       <c r="H41" t="n">
-        <v>196.9230441592155</v>
+        <v>196.923044159216</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,25 +3788,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>11.5030415600709</v>
+        <v>11.50304156007083</v>
       </c>
       <c r="T41" t="n">
-        <v>106.2332499115152</v>
+        <v>106.2332499115151</v>
       </c>
       <c r="U41" t="n">
         <v>153.310451730797</v>
       </c>
       <c r="V41" t="n">
-        <v>230.06753824203</v>
+        <v>230.0675382420299</v>
       </c>
       <c r="W41" t="n">
-        <v>251.5562484893081</v>
+        <v>251.556248489308</v>
       </c>
       <c r="X41" t="n">
-        <v>272.0463804503641</v>
+        <v>272.046380450364</v>
       </c>
       <c r="Y41" t="n">
-        <v>288.5532184279487</v>
+        <v>288.5532184279485</v>
       </c>
     </row>
     <row r="42">
@@ -3895,25 +3895,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>82.14725995383228</v>
       </c>
       <c r="C43" t="n">
-        <v>69.56210087052288</v>
+        <v>69.56210087052281</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>50.93075279010733</v>
       </c>
       <c r="E43" t="n">
-        <v>48.74924241846422</v>
+        <v>99.70874824091575</v>
       </c>
       <c r="F43" t="n">
-        <v>47.73632779482629</v>
+        <v>47.73632779482622</v>
       </c>
       <c r="G43" t="n">
-        <v>68.34108803092327</v>
+        <v>68.3410880309232</v>
       </c>
       <c r="H43" t="n">
-        <v>47.07029468621583</v>
+        <v>47.07029468621576</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3943,28 +3943,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S43" t="n">
-        <v>92.08430510333696</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T43" t="n">
-        <v>121.8642290480643</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U43" t="n">
-        <v>230.7340562419014</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V43" t="n">
-        <v>154.4529230957231</v>
+        <v>154.452923095723</v>
       </c>
       <c r="W43" t="n">
-        <v>188.8382781084861</v>
+        <v>188.838278108486</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>128.0249351609321</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>120.8999331239898</v>
       </c>
     </row>
     <row r="44">
@@ -3974,25 +3974,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>285.0491214353756</v>
+        <v>285.0491214353755</v>
       </c>
       <c r="C44" t="n">
-        <v>267.5881715429026</v>
+        <v>267.5881715429025</v>
       </c>
       <c r="D44" t="n">
-        <v>256.998321392578</v>
+        <v>256.9983213925779</v>
       </c>
       <c r="E44" t="n">
-        <v>284.2456498441568</v>
+        <v>284.2456498441567</v>
       </c>
       <c r="F44" t="n">
-        <v>309.1913255136065</v>
+        <v>309.1913255136064</v>
       </c>
       <c r="G44" t="n">
-        <v>313.2370054253485</v>
+        <v>313.2370054253484</v>
       </c>
       <c r="H44" t="n">
-        <v>196.9230441592155</v>
+        <v>196.9230441592154</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,25 +4025,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>11.5030415600709</v>
+        <v>11.5030415600708</v>
       </c>
       <c r="T44" t="n">
-        <v>106.2332499115152</v>
+        <v>106.2332499115151</v>
       </c>
       <c r="U44" t="n">
-        <v>153.310451730797</v>
+        <v>153.3104517307969</v>
       </c>
       <c r="V44" t="n">
-        <v>230.06753824203</v>
+        <v>230.0675382420299</v>
       </c>
       <c r="W44" t="n">
-        <v>251.5562484893095</v>
+        <v>251.556248489308</v>
       </c>
       <c r="X44" t="n">
-        <v>272.0463804503641</v>
+        <v>272.046380450364</v>
       </c>
       <c r="Y44" t="n">
-        <v>288.5532184279487</v>
+        <v>288.5532184279485</v>
       </c>
     </row>
     <row r="45">
@@ -4132,25 +4132,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>82.14725995383235</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>69.56210087052278</v>
       </c>
       <c r="D46" t="n">
-        <v>50.93075279010741</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>48.74924241846412</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>47.7363277948262</v>
       </c>
       <c r="G46" t="n">
-        <v>68.34108803092327</v>
+        <v>68.34108803092317</v>
       </c>
       <c r="H46" t="n">
-        <v>47.07029468621583</v>
+        <v>47.07029468621573</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4183,25 +4183,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>92.08430510333696</v>
+        <v>92.08430510333685</v>
       </c>
       <c r="T46" t="n">
-        <v>121.8642290480643</v>
+        <v>121.8642290480641</v>
       </c>
       <c r="U46" t="n">
-        <v>188.5271179775079</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V46" t="n">
-        <v>154.4529230957231</v>
+        <v>154.452923095723</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>188.838278108486</v>
       </c>
       <c r="X46" t="n">
-        <v>128.0249351609322</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>163.1068713883832</v>
+        <v>163.106871388384</v>
       </c>
     </row>
   </sheetData>
@@ -5015,25 +5015,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1464.883581967806</v>
+        <v>1139.306993957416</v>
       </c>
       <c r="C11" t="n">
-        <v>1464.883581967806</v>
+        <v>797.5365442767279</v>
       </c>
       <c r="D11" t="n">
-        <v>1211.587353696676</v>
+        <v>797.5365442767279</v>
       </c>
       <c r="E11" t="n">
-        <v>852.9911683581549</v>
+        <v>438.9403589382074</v>
       </c>
       <c r="F11" t="n">
-        <v>469.197330828271</v>
+        <v>438.9403589382074</v>
       </c>
       <c r="G11" t="n">
-        <v>81.31694793299116</v>
+        <v>81.31694793299113</v>
       </c>
       <c r="H11" t="n">
-        <v>81.31694793299116</v>
+        <v>81.31694793299113</v>
       </c>
       <c r="I11" t="n">
         <v>66.51211643218357</v>
@@ -5042,7 +5042,7 @@
         <v>255.3912473912087</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810548</v>
       </c>
       <c r="L11" t="n">
         <v>1040.244834329464</v>
@@ -5054,10 +5054,10 @@
         <v>2120.555556060171</v>
       </c>
       <c r="O11" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q11" t="n">
         <v>3266.588755052368</v>
@@ -5072,19 +5072,19 @@
         <v>3063.721540039935</v>
       </c>
       <c r="U11" t="n">
-        <v>2837.383130573496</v>
+        <v>2837.383130573495</v>
       </c>
       <c r="V11" t="n">
         <v>2533.512310489648</v>
       </c>
       <c r="W11" t="n">
-        <v>2533.512310489648</v>
+        <v>2207.935722479258</v>
       </c>
       <c r="X11" t="n">
-        <v>2187.238619488292</v>
+        <v>1861.662031477902</v>
       </c>
       <c r="Y11" t="n">
-        <v>1824.291354772204</v>
+        <v>1498.714766761814</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811075</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999805</v>
       </c>
       <c r="D12" t="n">
-        <v>618.1564155387309</v>
+        <v>618.1564155387292</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332737</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601587</v>
       </c>
       <c r="G12" t="n">
-        <v>176.021302392779</v>
+        <v>176.0213023927768</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064633</v>
+        <v>85.51940803064433</v>
       </c>
       <c r="I12" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J12" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L12" t="n">
-        <v>765.1517452158135</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M12" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N12" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O12" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P12" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q12" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R12" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S12" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T12" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U12" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V12" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W12" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X12" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y12" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="13">
@@ -5173,37 +5173,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>901.2692096237417</v>
+        <v>418.3126375609364</v>
       </c>
       <c r="C13" t="n">
-        <v>759.5250939555585</v>
+        <v>276.5685218927533</v>
       </c>
       <c r="D13" t="n">
-        <v>636.6005218029464</v>
+        <v>153.6439497401414</v>
       </c>
       <c r="E13" t="n">
-        <v>515.879495480277</v>
+        <v>153.6439497401414</v>
       </c>
       <c r="F13" t="n">
-        <v>396.1816152420903</v>
+        <v>136.6457263541143</v>
       </c>
       <c r="G13" t="n">
-        <v>255.6708458765329</v>
+        <v>136.6457263541143</v>
       </c>
       <c r="H13" t="n">
-        <v>136.6457263541144</v>
+        <v>136.6457263541143</v>
       </c>
       <c r="I13" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J13" t="n">
-        <v>138.2856940003741</v>
+        <v>138.2856940003742</v>
       </c>
       <c r="K13" t="n">
-        <v>368.9238220705057</v>
+        <v>368.923822070506</v>
       </c>
       <c r="L13" t="n">
-        <v>712.1345656402571</v>
+        <v>712.1345656402574</v>
       </c>
       <c r="M13" t="n">
         <v>1082.942556361061</v>
@@ -5221,13 +5221,13 @@
         <v>2140.502109058534</v>
       </c>
       <c r="R13" t="n">
-        <v>2077.863719075786</v>
+        <v>2077.863719075785</v>
       </c>
       <c r="S13" t="n">
-        <v>1913.369902162336</v>
+        <v>1913.369902162335</v>
       </c>
       <c r="T13" t="n">
-        <v>1718.795353991586</v>
+        <v>1718.795353991585</v>
       </c>
       <c r="U13" t="n">
         <v>1456.884554376953</v>
@@ -5236,13 +5236,13 @@
         <v>1229.392133430789</v>
       </c>
       <c r="W13" t="n">
-        <v>1094.869721507548</v>
+        <v>967.1670306535524</v>
       </c>
       <c r="X13" t="n">
-        <v>1094.869721507548</v>
+        <v>766.3695470152588</v>
       </c>
       <c r="Y13" t="n">
-        <v>901.2692096237417</v>
+        <v>572.7690351314525</v>
       </c>
     </row>
     <row r="14">
@@ -5252,34 +5252,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1450.348319669544</v>
+        <v>1158.867147513818</v>
       </c>
       <c r="C14" t="n">
-        <v>1108.577869988856</v>
+        <v>1158.867147513818</v>
       </c>
       <c r="D14" t="n">
-        <v>1108.577869988856</v>
+        <v>827.7935161667913</v>
       </c>
       <c r="E14" t="n">
-        <v>1108.577869988856</v>
+        <v>469.1973308282708</v>
       </c>
       <c r="F14" t="n">
-        <v>724.7840324589723</v>
+        <v>469.1973308282708</v>
       </c>
       <c r="G14" t="n">
-        <v>336.9036495636925</v>
+        <v>81.316947932991</v>
       </c>
       <c r="H14" t="n">
-        <v>66.51211643218343</v>
+        <v>81.316947932991</v>
       </c>
       <c r="I14" t="n">
-        <v>66.51211643218357</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J14" t="n">
         <v>255.3912473912092</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L14" t="n">
         <v>1040.244834329465</v>
@@ -5288,40 +5288,40 @@
         <v>1573.776739001389</v>
       </c>
       <c r="N14" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O14" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P14" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q14" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R14" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="S14" t="n">
-        <v>3242.50722039599</v>
+        <v>3242.507220395988</v>
       </c>
       <c r="T14" t="n">
-        <v>3063.721540039936</v>
+        <v>3063.721540039934</v>
       </c>
       <c r="U14" t="n">
-        <v>2844.553636201777</v>
+        <v>2837.383130573494</v>
       </c>
       <c r="V14" t="n">
-        <v>2844.553636201777</v>
+        <v>2533.512310489647</v>
       </c>
       <c r="W14" t="n">
-        <v>2518.977048191387</v>
+        <v>2207.935722479257</v>
       </c>
       <c r="X14" t="n">
-        <v>2172.70335719003</v>
+        <v>1861.662031477901</v>
       </c>
       <c r="Y14" t="n">
-        <v>1809.756092473942</v>
+        <v>1518.274920318216</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>941.5438544811091</v>
+        <v>941.543854481107</v>
       </c>
       <c r="C15" t="n">
-        <v>767.0908251999821</v>
+        <v>767.09082519998</v>
       </c>
       <c r="D15" t="n">
-        <v>618.1564155387309</v>
+        <v>618.1564155387288</v>
       </c>
       <c r="E15" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332733</v>
       </c>
       <c r="F15" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601583</v>
       </c>
       <c r="G15" t="n">
-        <v>176.0213023927789</v>
+        <v>176.0213023927764</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064387</v>
       </c>
       <c r="I15" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J15" t="n">
-        <v>160.1893859228011</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K15" t="n">
-        <v>398.4535849031483</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L15" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158128</v>
       </c>
       <c r="M15" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N15" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O15" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410637</v>
       </c>
       <c r="P15" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q15" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R15" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S15" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T15" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.82830229719</v>
       </c>
       <c r="U15" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V15" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199863</v>
       </c>
       <c r="W15" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X15" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y15" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501175</v>
       </c>
     </row>
     <row r="16">
@@ -5410,37 +5410,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>831.1355997018107</v>
+        <v>418.3126375609368</v>
       </c>
       <c r="C16" t="n">
-        <v>689.3914840336275</v>
+        <v>276.5685218927534</v>
       </c>
       <c r="D16" t="n">
-        <v>566.4669118810154</v>
+        <v>276.5685218927534</v>
       </c>
       <c r="E16" t="n">
-        <v>445.745885558346</v>
+        <v>276.5685218927534</v>
       </c>
       <c r="F16" t="n">
-        <v>326.0480053201593</v>
+        <v>207.0228857977407</v>
       </c>
       <c r="G16" t="n">
-        <v>185.537235954602</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H16" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I16" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J16" t="n">
-        <v>138.2856940003742</v>
+        <v>138.2856940003737</v>
       </c>
       <c r="K16" t="n">
-        <v>368.9238220705058</v>
+        <v>368.9238220705054</v>
       </c>
       <c r="L16" t="n">
-        <v>712.1345656402572</v>
+        <v>712.1345656402566</v>
       </c>
       <c r="M16" t="n">
         <v>1082.942556361061</v>
@@ -5449,13 +5449,13 @@
         <v>1451.001878188181</v>
       </c>
       <c r="O16" t="n">
-        <v>1776.98242222985</v>
+        <v>1776.982422229849</v>
       </c>
       <c r="P16" t="n">
-        <v>2036.240867784764</v>
+        <v>2036.240867784763</v>
       </c>
       <c r="Q16" t="n">
-        <v>2140.502109058534</v>
+        <v>2140.502109058533</v>
       </c>
       <c r="R16" t="n">
         <v>2077.863719075785</v>
@@ -5473,13 +5473,13 @@
         <v>1229.392133430789</v>
       </c>
       <c r="W16" t="n">
-        <v>967.1670306535527</v>
+        <v>967.1670306535526</v>
       </c>
       <c r="X16" t="n">
-        <v>967.1670306535527</v>
+        <v>766.3695470152591</v>
       </c>
       <c r="Y16" t="n">
-        <v>831.1355997018107</v>
+        <v>572.7690351314527</v>
       </c>
     </row>
     <row r="17">
@@ -5489,34 +5489,34 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1775.325244677776</v>
+        <v>1518.904057542</v>
       </c>
       <c r="C17" t="n">
-        <v>1560.999521934037</v>
+        <v>1224.583240809386</v>
       </c>
       <c r="D17" t="n">
-        <v>1277.375523535083</v>
+        <v>940.9592424104321</v>
       </c>
       <c r="E17" t="n">
-        <v>966.228971144636</v>
+        <v>940.9592424104321</v>
       </c>
       <c r="F17" t="n">
-        <v>629.8847665628256</v>
+        <v>604.6150378286216</v>
       </c>
       <c r="G17" t="n">
-        <v>289.4540166156192</v>
+        <v>289.4540166156191</v>
       </c>
       <c r="H17" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I17" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J17" t="n">
         <v>255.3912473912087</v>
       </c>
       <c r="K17" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L17" t="n">
         <v>1040.244834329464</v>
@@ -5525,40 +5525,40 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N17" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O17" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939506</v>
       </c>
       <c r="P17" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296684</v>
       </c>
       <c r="Q17" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R17" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="S17" t="n">
-        <v>3289.956853344063</v>
+        <v>3289.956853344061</v>
       </c>
       <c r="T17" t="n">
-        <v>3158.620805936082</v>
+        <v>3158.62080593608</v>
       </c>
       <c r="U17" t="n">
-        <v>2979.732029417715</v>
+        <v>2979.732029417713</v>
       </c>
       <c r="V17" t="n">
-        <v>2979.732029417715</v>
+        <v>2723.31084228194</v>
       </c>
       <c r="W17" t="n">
-        <v>2701.605074355398</v>
+        <v>2445.183887219622</v>
       </c>
       <c r="X17" t="n">
-        <v>2402.781016302115</v>
+        <v>2146.35982916634</v>
       </c>
       <c r="Y17" t="n">
-        <v>2087.283384534101</v>
+        <v>1830.862197398325</v>
       </c>
     </row>
     <row r="18">
@@ -5568,73 +5568,73 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811075</v>
       </c>
       <c r="C18" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999805</v>
       </c>
       <c r="D18" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387292</v>
       </c>
       <c r="E18" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332737</v>
       </c>
       <c r="F18" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601587</v>
       </c>
       <c r="G18" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927768</v>
       </c>
       <c r="H18" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064433</v>
       </c>
       <c r="I18" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J18" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K18" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L18" t="n">
-        <v>765.1517452158135</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M18" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N18" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O18" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P18" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q18" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R18" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S18" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T18" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U18" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V18" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W18" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X18" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y18" t="n">
         <v>1109.759191501176</v>
@@ -5647,40 +5647,40 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>632.1517731235555</v>
+        <v>569.121778987228</v>
       </c>
       <c r="C19" t="n">
-        <v>537.8572904034456</v>
+        <v>474.8272962671182</v>
       </c>
       <c r="D19" t="n">
-        <v>462.3823511989069</v>
+        <v>399.3523570625795</v>
       </c>
       <c r="E19" t="n">
-        <v>389.1109578243108</v>
+        <v>326.0809636879835</v>
       </c>
       <c r="F19" t="n">
-        <v>316.8627105341975</v>
+        <v>253.8327163978701</v>
       </c>
       <c r="G19" t="n">
-        <v>160.7715799803863</v>
+        <v>160.7715799803862</v>
       </c>
       <c r="H19" t="n">
-        <v>89.19609340604106</v>
+        <v>89.196093406041</v>
       </c>
       <c r="I19" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J19" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K19" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L19" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M19" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N19" t="n">
         <v>1317.747152581905</v>
@@ -5692,10 +5692,10 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q19" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R19" t="n">
-        <v>1912.105791053818</v>
+        <v>1912.105791053817</v>
       </c>
       <c r="S19" t="n">
         <v>1795.061607088441</v>
@@ -5704,19 +5704,19 @@
         <v>1647.936691865764</v>
       </c>
       <c r="U19" t="n">
-        <v>1433.475525199205</v>
+        <v>1370.445531062878</v>
       </c>
       <c r="V19" t="n">
-        <v>1253.432737201115</v>
+        <v>1190.402743064788</v>
       </c>
       <c r="W19" t="n">
-        <v>1038.657267371952</v>
+        <v>975.6272732356241</v>
       </c>
       <c r="X19" t="n">
-        <v>885.3094166817312</v>
+        <v>822.2794225454038</v>
       </c>
       <c r="Y19" t="n">
-        <v>739.1585377459982</v>
+        <v>676.1285436096707</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1518.904057542001</v>
+        <v>1518.904057542002</v>
       </c>
       <c r="C20" t="n">
-        <v>1224.583240809386</v>
+        <v>1224.583240809387</v>
       </c>
       <c r="D20" t="n">
-        <v>940.9592424104326</v>
+        <v>940.9592424104337</v>
       </c>
       <c r="E20" t="n">
-        <v>629.8126900199852</v>
+        <v>629.8126900199866</v>
       </c>
       <c r="F20" t="n">
-        <v>406.94286637939</v>
+        <v>293.468485438176</v>
       </c>
       <c r="G20" t="n">
-        <v>66.51211643218339</v>
+        <v>289.4540166156192</v>
       </c>
       <c r="H20" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I20" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J20" t="n">
         <v>255.3912473912087</v>
       </c>
       <c r="K20" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L20" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M20" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N20" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O20" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P20" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q20" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R20" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S20" t="n">
         <v>3289.956853344062</v>
       </c>
       <c r="T20" t="n">
-        <v>3158.620805936081</v>
+        <v>3158.620805936082</v>
       </c>
       <c r="U20" t="n">
-        <v>2979.732029417714</v>
+        <v>2979.732029417715</v>
       </c>
       <c r="V20" t="n">
-        <v>2723.31084228194</v>
+        <v>2723.310842281941</v>
       </c>
       <c r="W20" t="n">
-        <v>2445.183887219623</v>
+        <v>2445.183887219624</v>
       </c>
       <c r="X20" t="n">
-        <v>2146.35982916634</v>
+        <v>2146.359829166342</v>
       </c>
       <c r="Y20" t="n">
-        <v>1830.862197398325</v>
+        <v>1830.862197398327</v>
       </c>
     </row>
     <row r="21">
@@ -5823,10 +5823,10 @@
         <v>176.021302392778</v>
       </c>
       <c r="H21" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I21" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J21" t="n">
         <v>160.1893859228006</v>
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>569.1217789872286</v>
+        <v>569.1217789872281</v>
       </c>
       <c r="C22" t="n">
-        <v>474.8272962671187</v>
+        <v>474.8272962671182</v>
       </c>
       <c r="D22" t="n">
-        <v>399.3523570625799</v>
+        <v>399.3523570625796</v>
       </c>
       <c r="E22" t="n">
-        <v>326.0809636879838</v>
+        <v>326.0809636879835</v>
       </c>
       <c r="F22" t="n">
-        <v>253.8327163978704</v>
+        <v>253.8327163978702</v>
       </c>
       <c r="G22" t="n">
-        <v>160.7715799803863</v>
+        <v>160.7715799803862</v>
       </c>
       <c r="H22" t="n">
-        <v>89.19609340604109</v>
+        <v>89.19609340604103</v>
       </c>
       <c r="I22" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J22" t="n">
         <v>111.6347488791189</v>
@@ -5935,7 +5935,7 @@
         <v>1912.105791053817</v>
       </c>
       <c r="S22" t="n">
-        <v>1795.06160708844</v>
+        <v>1795.061607088441</v>
       </c>
       <c r="T22" t="n">
         <v>1647.936691865764</v>
@@ -5944,16 +5944,16 @@
         <v>1433.475525199204</v>
       </c>
       <c r="V22" t="n">
-        <v>1253.432737201114</v>
+        <v>1253.432737201115</v>
       </c>
       <c r="W22" t="n">
         <v>1038.657267371951</v>
       </c>
       <c r="X22" t="n">
-        <v>885.3094166817302</v>
+        <v>885.3094166817308</v>
       </c>
       <c r="Y22" t="n">
-        <v>676.1285436096713</v>
+        <v>676.1285436096708</v>
       </c>
     </row>
     <row r="23">
@@ -5966,25 +5966,25 @@
         <v>1862.18597705695</v>
       </c>
       <c r="C23" t="n">
-        <v>1567.865160324335</v>
+        <v>1567.865160324336</v>
       </c>
       <c r="D23" t="n">
         <v>1284.241161925382</v>
       </c>
       <c r="E23" t="n">
-        <v>973.0946095349346</v>
+        <v>973.094609534935</v>
       </c>
       <c r="F23" t="n">
-        <v>636.7504049531241</v>
+        <v>636.7504049531244</v>
       </c>
       <c r="G23" t="n">
-        <v>296.3196550059183</v>
+        <v>296.3196550059182</v>
       </c>
       <c r="H23" t="n">
-        <v>73.3777548224824</v>
+        <v>73.37775482248237</v>
       </c>
       <c r="I23" t="n">
-        <v>73.3777548224824</v>
+        <v>73.37775482248237</v>
       </c>
       <c r="J23" t="n">
         <v>262.2568857815078</v>
@@ -5993,40 +5993,40 @@
         <v>596.0762594713542</v>
       </c>
       <c r="L23" t="n">
-        <v>1383.526753844414</v>
+        <v>1047.110472719763</v>
       </c>
       <c r="M23" t="n">
-        <v>1917.058658516338</v>
+        <v>1706.866817763031</v>
       </c>
       <c r="N23" t="n">
-        <v>2463.83747557512</v>
+        <v>2253.645634821813</v>
       </c>
       <c r="O23" t="n">
-        <v>2966.809946454457</v>
+        <v>2756.61810570115</v>
       </c>
       <c r="P23" t="n">
-        <v>3361.584312811635</v>
+        <v>3151.392472058328</v>
       </c>
       <c r="Q23" t="n">
-        <v>3609.870674567317</v>
+        <v>3609.870674567316</v>
       </c>
       <c r="R23" t="n">
-        <v>3668.88774112412</v>
+        <v>3668.887741124118</v>
       </c>
       <c r="S23" t="n">
-        <v>3633.238772859012</v>
+        <v>3633.23877285901</v>
       </c>
       <c r="T23" t="n">
-        <v>3501.902725451031</v>
+        <v>3501.902725451029</v>
       </c>
       <c r="U23" t="n">
-        <v>3323.013948932664</v>
+        <v>3323.013948932663</v>
       </c>
       <c r="V23" t="n">
-        <v>3066.59276179689</v>
+        <v>3066.592761796889</v>
       </c>
       <c r="W23" t="n">
-        <v>2788.465806734573</v>
+        <v>2788.465806734572</v>
       </c>
       <c r="X23" t="n">
         <v>2489.64174868129</v>
@@ -6042,37 +6042,37 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>948.4094928714073</v>
+        <v>948.4094928714064</v>
       </c>
       <c r="C24" t="n">
-        <v>773.9564635902804</v>
+        <v>773.9564635902794</v>
       </c>
       <c r="D24" t="n">
-        <v>625.0220539290291</v>
+        <v>625.0220539290282</v>
       </c>
       <c r="E24" t="n">
-        <v>465.7845989235736</v>
+        <v>465.7845989235727</v>
       </c>
       <c r="F24" t="n">
-        <v>319.2500409504586</v>
+        <v>319.2500409504577</v>
       </c>
       <c r="G24" t="n">
-        <v>182.8869407830767</v>
+        <v>182.8869407830758</v>
       </c>
       <c r="H24" t="n">
-        <v>92.38504642094419</v>
+        <v>92.38504642094328</v>
       </c>
       <c r="I24" t="n">
-        <v>73.3777548224824</v>
+        <v>73.37775482248237</v>
       </c>
       <c r="J24" t="n">
-        <v>167.0550243130997</v>
+        <v>167.0550243130996</v>
       </c>
       <c r="K24" t="n">
-        <v>405.3192232934468</v>
+        <v>405.3192232934467</v>
       </c>
       <c r="L24" t="n">
-        <v>772.017383606112</v>
+        <v>772.0173836061119</v>
       </c>
       <c r="M24" t="n">
         <v>1219.293708828428</v>
@@ -6084,31 +6084,31 @@
         <v>2103.778031800937</v>
       </c>
       <c r="P24" t="n">
-        <v>2414.27762327704</v>
+        <v>2414.277623277039</v>
       </c>
       <c r="Q24" t="n">
-        <v>2571.91918092364</v>
+        <v>2571.919180923639</v>
       </c>
       <c r="R24" t="n">
-        <v>2571.774827516155</v>
+        <v>2571.774827516154</v>
       </c>
       <c r="S24" t="n">
-        <v>2442.336941009635</v>
+        <v>2442.336941009634</v>
       </c>
       <c r="T24" t="n">
-        <v>2249.693940687491</v>
+        <v>2249.69394068749</v>
       </c>
       <c r="U24" t="n">
-        <v>2021.626093821906</v>
+        <v>2021.626093821905</v>
       </c>
       <c r="V24" t="n">
-        <v>1786.473985590164</v>
+        <v>1786.473985590163</v>
       </c>
       <c r="W24" t="n">
-        <v>1532.236628861962</v>
+        <v>1532.236628861961</v>
       </c>
       <c r="X24" t="n">
-        <v>1324.385128656429</v>
+        <v>1324.385128656428</v>
       </c>
       <c r="Y24" t="n">
         <v>1116.624829891475</v>
@@ -6121,34 +6121,34 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>575.9874173775277</v>
+        <v>575.987417377527</v>
       </c>
       <c r="C25" t="n">
-        <v>481.6929346574177</v>
+        <v>481.6929346574171</v>
       </c>
       <c r="D25" t="n">
-        <v>406.2179954528789</v>
+        <v>406.2179954528785</v>
       </c>
       <c r="E25" t="n">
-        <v>332.9466020782828</v>
+        <v>332.9466020782824</v>
       </c>
       <c r="F25" t="n">
-        <v>260.6983547881694</v>
+        <v>260.6983547881691</v>
       </c>
       <c r="G25" t="n">
-        <v>167.6372183706853</v>
+        <v>167.6372183706852</v>
       </c>
       <c r="H25" t="n">
-        <v>96.0617317963401</v>
+        <v>96.06173179633998</v>
       </c>
       <c r="I25" t="n">
-        <v>73.3777548224824</v>
+        <v>73.37775482248237</v>
       </c>
       <c r="J25" t="n">
         <v>118.5003872694179</v>
       </c>
       <c r="K25" t="n">
-        <v>322.4875702182943</v>
+        <v>322.4875702182942</v>
       </c>
       <c r="L25" t="n">
         <v>639.0473686667904</v>
@@ -6169,28 +6169,28 @@
         <v>1934.160186478791</v>
       </c>
       <c r="R25" t="n">
-        <v>1855.94143530779</v>
+        <v>1918.971429444116</v>
       </c>
       <c r="S25" t="n">
-        <v>1738.897251342414</v>
+        <v>1801.92724547874</v>
       </c>
       <c r="T25" t="n">
-        <v>1591.772336119737</v>
+        <v>1654.802330256063</v>
       </c>
       <c r="U25" t="n">
-        <v>1377.311169453177</v>
+        <v>1440.341163589503</v>
       </c>
       <c r="V25" t="n">
-        <v>1197.268381455088</v>
+        <v>1260.298375591414</v>
       </c>
       <c r="W25" t="n">
-        <v>982.4929116259239</v>
+        <v>1045.52290576225</v>
       </c>
       <c r="X25" t="n">
-        <v>829.1450609357034</v>
+        <v>892.1750550720297</v>
       </c>
       <c r="Y25" t="n">
-        <v>682.9941819999704</v>
+        <v>746.0241761362967</v>
       </c>
     </row>
     <row r="26">
@@ -6200,28 +6200,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2033.107542689501</v>
+        <v>2033.1075426895</v>
       </c>
       <c r="C26" t="n">
-        <v>1711.594658697163</v>
+        <v>1711.594658697162</v>
       </c>
       <c r="D26" t="n">
-        <v>1400.778593038486</v>
+        <v>1400.778593038485</v>
       </c>
       <c r="E26" t="n">
-        <v>1062.439973388315</v>
+        <v>1062.439973388313</v>
       </c>
       <c r="F26" t="n">
-        <v>698.9037015467807</v>
+        <v>698.9037015467791</v>
       </c>
       <c r="G26" t="n">
         <v>331.2808843398487</v>
       </c>
       <c r="H26" t="n">
-        <v>81.14691689668919</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="I26" t="n">
-        <v>81.14691689668919</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J26" t="n">
         <v>270.0260478557146</v>
@@ -6230,46 +6230,46 @@
         <v>603.845421545561</v>
       </c>
       <c r="L26" t="n">
-        <v>1468.364237198915</v>
+        <v>1054.87963479397</v>
       </c>
       <c r="M26" t="n">
-        <v>2305.516762226678</v>
+        <v>1588.411539465894</v>
       </c>
       <c r="N26" t="n">
-        <v>2852.29557928546</v>
+        <v>2468.655602521439</v>
       </c>
       <c r="O26" t="n">
-        <v>3355.268050164797</v>
+        <v>2971.628073400776</v>
       </c>
       <c r="P26" t="n">
-        <v>3750.042416521975</v>
+        <v>3684.983160847721</v>
       </c>
       <c r="Q26" t="n">
-        <v>3998.328778277657</v>
+        <v>3933.269522603403</v>
       </c>
       <c r="R26" t="n">
-        <v>4057.34584483446</v>
+        <v>4057.345844834459</v>
       </c>
       <c r="S26" t="n">
-        <v>3994.504809309628</v>
+        <v>3994.504809309627</v>
       </c>
       <c r="T26" t="n">
-        <v>3835.976694641923</v>
+        <v>3835.976694641922</v>
       </c>
       <c r="U26" t="n">
-        <v>3629.895850863833</v>
+        <v>3629.895850863832</v>
       </c>
       <c r="V26" t="n">
-        <v>3346.282596468336</v>
+        <v>3346.282596468335</v>
       </c>
       <c r="W26" t="n">
-        <v>3040.963574146295</v>
+        <v>3040.963574146294</v>
       </c>
       <c r="X26" t="n">
-        <v>2714.947448833288</v>
+        <v>2714.947448833287</v>
       </c>
       <c r="Y26" t="n">
-        <v>2372.25774980555</v>
+        <v>2372.257749805549</v>
       </c>
     </row>
     <row r="27">
@@ -6279,73 +6279,73 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>956.1786549456135</v>
+        <v>956.1786549456143</v>
       </c>
       <c r="C27" t="n">
-        <v>781.7256256644865</v>
+        <v>781.7256256644873</v>
       </c>
       <c r="D27" t="n">
-        <v>632.7912160032353</v>
+        <v>632.7912160032361</v>
       </c>
       <c r="E27" t="n">
-        <v>473.5537609977798</v>
+        <v>473.5537609977806</v>
       </c>
       <c r="F27" t="n">
-        <v>327.0192030246648</v>
+        <v>327.0192030246656</v>
       </c>
       <c r="G27" t="n">
-        <v>190.6561028572829</v>
+        <v>190.6561028572837</v>
       </c>
       <c r="H27" t="n">
-        <v>100.1542084951504</v>
+        <v>100.1542084951512</v>
       </c>
       <c r="I27" t="n">
-        <v>81.14691689668919</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J27" t="n">
-        <v>174.8241863873065</v>
+        <v>174.8241863873071</v>
       </c>
       <c r="K27" t="n">
-        <v>413.0883853676536</v>
+        <v>413.0883853676542</v>
       </c>
       <c r="L27" t="n">
-        <v>779.7865456803188</v>
+        <v>779.7865456803195</v>
       </c>
       <c r="M27" t="n">
         <v>1227.062870902635</v>
       </c>
       <c r="N27" t="n">
-        <v>1700.585914457089</v>
+        <v>1700.58591445709</v>
       </c>
       <c r="O27" t="n">
         <v>2111.547193875144</v>
       </c>
       <c r="P27" t="n">
-        <v>2422.046785351246</v>
+        <v>2422.046785351247</v>
       </c>
       <c r="Q27" t="n">
-        <v>2579.688342997846</v>
+        <v>2579.688342997847</v>
       </c>
       <c r="R27" t="n">
-        <v>2579.543989590361</v>
+        <v>2579.543989590362</v>
       </c>
       <c r="S27" t="n">
-        <v>2450.106103083841</v>
+        <v>2450.106103083842</v>
       </c>
       <c r="T27" t="n">
-        <v>2257.463102761697</v>
+        <v>2257.463102761698</v>
       </c>
       <c r="U27" t="n">
         <v>2029.395255896113</v>
       </c>
       <c r="V27" t="n">
-        <v>1794.24314766437</v>
+        <v>1794.243147664371</v>
       </c>
       <c r="W27" t="n">
-        <v>1540.005790936168</v>
+        <v>1540.005790936169</v>
       </c>
       <c r="X27" t="n">
-        <v>1332.154290730635</v>
+        <v>1332.154290730636</v>
       </c>
       <c r="Y27" t="n">
         <v>1124.393991965682</v>
@@ -6367,31 +6367,31 @@
         <v>549.9474938257041</v>
       </c>
       <c r="E28" t="n">
-        <v>449.4840331913843</v>
+        <v>449.4840331913842</v>
       </c>
       <c r="F28" t="n">
         <v>350.0437186415472</v>
       </c>
       <c r="G28" t="n">
-        <v>229.7905149643395</v>
+        <v>229.7905149643394</v>
       </c>
       <c r="H28" t="n">
-        <v>131.0229611302706</v>
+        <v>131.0229611302705</v>
       </c>
       <c r="I28" t="n">
-        <v>81.14691689668919</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J28" t="n">
-        <v>172.7749345960312</v>
+        <v>172.7749345960315</v>
       </c>
       <c r="K28" t="n">
-        <v>423.2675027973141</v>
+        <v>423.2675027973146</v>
       </c>
       <c r="L28" t="n">
-        <v>786.3326864982168</v>
+        <v>786.3326864982173</v>
       </c>
       <c r="M28" t="n">
-        <v>1176.995117350172</v>
+        <v>1176.995117350173</v>
       </c>
       <c r="N28" t="n">
         <v>1564.908879308444</v>
@@ -6412,7 +6412,7 @@
         <v>2127.355355052752</v>
       </c>
       <c r="T28" t="n">
-        <v>1953.038372570351</v>
+        <v>1953.038372570352</v>
       </c>
       <c r="U28" t="n">
         <v>1711.385138644068</v>
@@ -6437,16 +6437,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2033.107542689499</v>
+        <v>2033.1075426895</v>
       </c>
       <c r="C29" t="n">
-        <v>1711.594658697161</v>
+        <v>1711.594658697162</v>
       </c>
       <c r="D29" t="n">
-        <v>1400.778593038484</v>
+        <v>1400.778593038485</v>
       </c>
       <c r="E29" t="n">
-        <v>1062.439973388313</v>
+        <v>1062.439973388314</v>
       </c>
       <c r="F29" t="n">
         <v>698.9037015467787</v>
@@ -6455,58 +6455,58 @@
         <v>331.2808843398487</v>
       </c>
       <c r="H29" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="I29" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J29" t="n">
         <v>437.4316968760676</v>
       </c>
       <c r="K29" t="n">
-        <v>771.2510705659141</v>
+        <v>771.251070565914</v>
       </c>
       <c r="L29" t="n">
-        <v>1273.952146712633</v>
+        <v>1222.285283814323</v>
       </c>
       <c r="M29" t="n">
-        <v>1807.484051384558</v>
+        <v>1755.817188486247</v>
       </c>
       <c r="N29" t="n">
-        <v>2787.236323611205</v>
+        <v>2302.596005545029</v>
       </c>
       <c r="O29" t="n">
-        <v>3290.208794490542</v>
+        <v>2805.568476424366</v>
       </c>
       <c r="P29" t="n">
-        <v>3684.98316084772</v>
+        <v>3474.791320094415</v>
       </c>
       <c r="Q29" t="n">
-        <v>3933.269522603402</v>
+        <v>3933.269522603403</v>
       </c>
       <c r="R29" t="n">
-        <v>4057.345844834457</v>
+        <v>4057.345844834459</v>
       </c>
       <c r="S29" t="n">
-        <v>3994.504809309626</v>
+        <v>3994.504809309627</v>
       </c>
       <c r="T29" t="n">
-        <v>3835.976694641921</v>
+        <v>3835.976694641922</v>
       </c>
       <c r="U29" t="n">
-        <v>3629.895850863831</v>
+        <v>3629.895850863832</v>
       </c>
       <c r="V29" t="n">
-        <v>3346.282596468334</v>
+        <v>3346.282596468335</v>
       </c>
       <c r="W29" t="n">
-        <v>3040.963574146293</v>
+        <v>3040.963574146294</v>
       </c>
       <c r="X29" t="n">
-        <v>2714.947448833286</v>
+        <v>2714.947448833287</v>
       </c>
       <c r="Y29" t="n">
-        <v>2372.257749805548</v>
+        <v>2372.257749805549</v>
       </c>
     </row>
     <row r="30">
@@ -6516,16 +6516,16 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>956.1786549456142</v>
+        <v>956.1786549456143</v>
       </c>
       <c r="C30" t="n">
-        <v>781.7256256644872</v>
+        <v>781.7256256644873</v>
       </c>
       <c r="D30" t="n">
         <v>632.7912160032361</v>
       </c>
       <c r="E30" t="n">
-        <v>473.5537609977805</v>
+        <v>473.5537609977806</v>
       </c>
       <c r="F30" t="n">
         <v>327.0192030246656</v>
@@ -6537,16 +6537,16 @@
         <v>100.1542084951512</v>
       </c>
       <c r="I30" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J30" t="n">
-        <v>174.8241863873066</v>
+        <v>174.8241863873071</v>
       </c>
       <c r="K30" t="n">
-        <v>413.0883853676537</v>
+        <v>413.0883853676542</v>
       </c>
       <c r="L30" t="n">
-        <v>779.7865456803191</v>
+        <v>779.7865456803195</v>
       </c>
       <c r="M30" t="n">
         <v>1227.062870902635</v>
@@ -6595,31 +6595,31 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>774.1010502698</v>
+        <v>774.1010502697998</v>
       </c>
       <c r="C31" t="n">
-        <v>652.6145002899664</v>
+        <v>652.6145002899661</v>
       </c>
       <c r="D31" t="n">
-        <v>549.947493825704</v>
+        <v>549.9474938257038</v>
       </c>
       <c r="E31" t="n">
-        <v>449.4840331913842</v>
+        <v>449.4840331913839</v>
       </c>
       <c r="F31" t="n">
-        <v>350.0437186415472</v>
+        <v>350.0437186415468</v>
       </c>
       <c r="G31" t="n">
-        <v>229.7905149643393</v>
+        <v>229.7905149643391</v>
       </c>
       <c r="H31" t="n">
-        <v>131.0229611302704</v>
+        <v>131.0229611302702</v>
       </c>
       <c r="I31" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J31" t="n">
-        <v>172.7749345960312</v>
+        <v>172.7749345960314</v>
       </c>
       <c r="K31" t="n">
         <v>423.2675027973143</v>
@@ -6664,7 +6664,7 @@
         <v>1081.642828347423</v>
       </c>
       <c r="Y31" t="n">
-        <v>908.2998821519664</v>
+        <v>908.2998821519661</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2033.107542689499</v>
+        <v>2033.1075426895</v>
       </c>
       <c r="C32" t="n">
-        <v>1711.594658697161</v>
+        <v>1711.594658697162</v>
       </c>
       <c r="D32" t="n">
-        <v>1400.778593038484</v>
+        <v>1400.778593038485</v>
       </c>
       <c r="E32" t="n">
-        <v>1062.439973388313</v>
+        <v>1062.439973388314</v>
       </c>
       <c r="F32" t="n">
-        <v>698.9037015467788</v>
+        <v>698.9037015467795</v>
       </c>
       <c r="G32" t="n">
-        <v>331.2808843398486</v>
+        <v>331.2808843398487</v>
       </c>
       <c r="H32" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="I32" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J32" t="n">
-        <v>270.0260478557145</v>
+        <v>270.0260478557146</v>
       </c>
       <c r="K32" t="n">
-        <v>603.8454215455608</v>
+        <v>603.845421545561</v>
       </c>
       <c r="L32" t="n">
-        <v>1468.364237198915</v>
+        <v>1054.87963479397</v>
       </c>
       <c r="M32" t="n">
-        <v>2001.89614187084</v>
+        <v>1588.411539465894</v>
       </c>
       <c r="N32" t="n">
-        <v>2852.295579285458</v>
+        <v>2410.244144161089</v>
       </c>
       <c r="O32" t="n">
-        <v>3355.268050164795</v>
+        <v>3290.208794490543</v>
       </c>
       <c r="P32" t="n">
-        <v>3750.042416521972</v>
+        <v>3684.983160847721</v>
       </c>
       <c r="Q32" t="n">
-        <v>3998.328778277655</v>
+        <v>3933.269522603403</v>
       </c>
       <c r="R32" t="n">
-        <v>4057.345844834457</v>
+        <v>4057.345844834459</v>
       </c>
       <c r="S32" t="n">
-        <v>3994.504809309626</v>
+        <v>3994.504809309627</v>
       </c>
       <c r="T32" t="n">
-        <v>3835.976694641921</v>
+        <v>3835.976694641922</v>
       </c>
       <c r="U32" t="n">
-        <v>3629.895850863831</v>
+        <v>3629.895850863832</v>
       </c>
       <c r="V32" t="n">
-        <v>3346.282596468333</v>
+        <v>3346.282596468335</v>
       </c>
       <c r="W32" t="n">
-        <v>3040.963574146293</v>
+        <v>3040.963574146294</v>
       </c>
       <c r="X32" t="n">
-        <v>2714.947448833286</v>
+        <v>2714.947448833287</v>
       </c>
       <c r="Y32" t="n">
-        <v>2372.257749805548</v>
+        <v>2372.257749805549</v>
       </c>
     </row>
     <row r="33">
@@ -6753,28 +6753,28 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>956.1786549456143</v>
+        <v>956.1786549456135</v>
       </c>
       <c r="C33" t="n">
-        <v>781.7256256644873</v>
+        <v>781.7256256644865</v>
       </c>
       <c r="D33" t="n">
-        <v>632.7912160032361</v>
+        <v>632.7912160032353</v>
       </c>
       <c r="E33" t="n">
-        <v>473.5537609977806</v>
+        <v>473.5537609977798</v>
       </c>
       <c r="F33" t="n">
-        <v>327.0192030246656</v>
+        <v>327.0192030246648</v>
       </c>
       <c r="G33" t="n">
-        <v>190.6561028572837</v>
+        <v>190.6561028572829</v>
       </c>
       <c r="H33" t="n">
-        <v>100.1542084951512</v>
+        <v>100.1542084951504</v>
       </c>
       <c r="I33" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J33" t="n">
         <v>174.8241863873064</v>
@@ -6801,25 +6801,25 @@
         <v>2579.688342997846</v>
       </c>
       <c r="R33" t="n">
-        <v>2579.543989590362</v>
+        <v>2579.543989590361</v>
       </c>
       <c r="S33" t="n">
-        <v>2450.106103083842</v>
+        <v>2450.106103083841</v>
       </c>
       <c r="T33" t="n">
-        <v>2257.463102761698</v>
+        <v>2257.463102761697</v>
       </c>
       <c r="U33" t="n">
         <v>2029.395255896113</v>
       </c>
       <c r="V33" t="n">
-        <v>1794.243147664371</v>
+        <v>1794.24314766437</v>
       </c>
       <c r="W33" t="n">
-        <v>1540.005790936169</v>
+        <v>1540.005790936168</v>
       </c>
       <c r="X33" t="n">
-        <v>1332.154290730636</v>
+        <v>1332.154290730635</v>
       </c>
       <c r="Y33" t="n">
         <v>1124.393991965682</v>
@@ -6832,31 +6832,31 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>774.1010502697999</v>
+        <v>774.1010502698001</v>
       </c>
       <c r="C34" t="n">
-        <v>652.6145002899663</v>
+        <v>652.6145002899665</v>
       </c>
       <c r="D34" t="n">
-        <v>549.9474938257039</v>
+        <v>549.9474938257041</v>
       </c>
       <c r="E34" t="n">
-        <v>449.4840331913841</v>
+        <v>449.4840331913842</v>
       </c>
       <c r="F34" t="n">
         <v>350.0437186415471</v>
       </c>
       <c r="G34" t="n">
-        <v>229.7905149643394</v>
+        <v>229.7905149643393</v>
       </c>
       <c r="H34" t="n">
         <v>131.0229611302705</v>
       </c>
       <c r="I34" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J34" t="n">
-        <v>172.7749345960314</v>
+        <v>172.7749345960315</v>
       </c>
       <c r="K34" t="n">
         <v>423.2675027973144</v>
@@ -6901,7 +6901,7 @@
         <v>1081.642828347423</v>
       </c>
       <c r="Y34" t="n">
-        <v>908.2998821519662</v>
+        <v>908.2998821519666</v>
       </c>
     </row>
     <row r="35">
@@ -6920,13 +6920,13 @@
         <v>1181.256586070898</v>
       </c>
       <c r="E35" t="n">
-        <v>894.1397680464972</v>
+        <v>894.139768046497</v>
       </c>
       <c r="F35" t="n">
         <v>581.8252978307332</v>
       </c>
       <c r="G35" t="n">
-        <v>265.4242822495728</v>
+        <v>265.4242822495727</v>
       </c>
       <c r="H35" t="n">
         <v>66.51211643218342</v>
@@ -6935,25 +6935,25 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J35" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912083</v>
       </c>
       <c r="K35" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810543</v>
       </c>
       <c r="L35" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M35" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001387</v>
       </c>
       <c r="N35" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060169</v>
       </c>
       <c r="O35" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P35" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q35" t="n">
         <v>3266.588755052368</v>
@@ -6965,22 +6965,22 @@
         <v>3313.986587710109</v>
       </c>
       <c r="T35" t="n">
-        <v>3206.680274668175</v>
+        <v>3206.680274668174</v>
       </c>
       <c r="U35" t="n">
         <v>3051.821232515854</v>
       </c>
       <c r="V35" t="n">
-        <v>2819.429779746127</v>
+        <v>2819.429779746126</v>
       </c>
       <c r="W35" t="n">
-        <v>2565.332559049857</v>
+        <v>2565.332559049856</v>
       </c>
       <c r="X35" t="n">
-        <v>2290.53823536262</v>
+        <v>2290.538235362619</v>
       </c>
       <c r="Y35" t="n">
-        <v>1999.070337960652</v>
+        <v>1999.070337960651</v>
       </c>
     </row>
     <row r="36">
@@ -7069,19 +7069,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>500.9308303909357</v>
+        <v>543.5641013650707</v>
       </c>
       <c r="C37" t="n">
-        <v>430.6660820368722</v>
+        <v>473.2993530110072</v>
       </c>
       <c r="D37" t="n">
-        <v>379.2208771983799</v>
+        <v>323.1827135986715</v>
       </c>
       <c r="E37" t="n">
-        <v>231.3077836159868</v>
+        <v>231.3077836159866</v>
       </c>
       <c r="F37" t="n">
-        <v>183.0892706919199</v>
+        <v>183.0892706919198</v>
       </c>
       <c r="G37" t="n">
         <v>114.0578686404822</v>
@@ -7120,13 +7120,13 @@
         <v>1927.294548088492</v>
       </c>
       <c r="S37" t="n">
-        <v>1834.280098489162</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T37" t="n">
-        <v>1711.184917632532</v>
+        <v>1612.513483058688</v>
       </c>
       <c r="U37" t="n">
-        <v>1520.753485332018</v>
+        <v>1422.082050758175</v>
       </c>
       <c r="V37" t="n">
         <v>1266.068997126132</v>
@@ -7138,7 +7138,7 @@
         <v>748.6622761911535</v>
       </c>
       <c r="Y37" t="n">
-        <v>626.5411316214668</v>
+        <v>626.5411316214669</v>
       </c>
     </row>
     <row r="38">
@@ -7151,19 +7151,19 @@
         <v>1711.141932470374</v>
       </c>
       <c r="C38" t="n">
-        <v>1440.850850103806</v>
+        <v>1440.850850103805</v>
       </c>
       <c r="D38" t="n">
-        <v>1181.256586070899</v>
+        <v>1181.256586070898</v>
       </c>
       <c r="E38" t="n">
-        <v>894.1397680464979</v>
+        <v>894.1397680464976</v>
       </c>
       <c r="F38" t="n">
         <v>581.8252978307337</v>
       </c>
       <c r="G38" t="n">
-        <v>265.4242822495729</v>
+        <v>265.4242822495727</v>
       </c>
       <c r="H38" t="n">
         <v>66.51211643218342</v>
@@ -7172,25 +7172,25 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J38" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K38" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L38" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M38" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N38" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O38" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P38" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q38" t="n">
         <v>3266.588755052368</v>
@@ -7217,7 +7217,7 @@
         <v>2290.538235362621</v>
       </c>
       <c r="Y38" t="n">
-        <v>1999.070337960653</v>
+        <v>1999.070337960652</v>
       </c>
     </row>
     <row r="39">
@@ -7254,22 +7254,22 @@
         <v>160.1893859228007</v>
       </c>
       <c r="K39" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031482</v>
       </c>
       <c r="L39" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M39" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N39" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O39" t="n">
         <v>2096.912393410638</v>
       </c>
       <c r="P39" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q39" t="n">
         <v>2565.053542533341</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>698.2736995386226</v>
+        <v>552.4050786964424</v>
       </c>
       <c r="C40" t="n">
-        <v>628.0089511845591</v>
+        <v>383.4688957685355</v>
       </c>
       <c r="D40" t="n">
-        <v>477.8923117722234</v>
+        <v>332.0236909300432</v>
       </c>
       <c r="E40" t="n">
-        <v>329.9792181898302</v>
+        <v>282.7820319214936</v>
       </c>
       <c r="F40" t="n">
-        <v>183.0892706919199</v>
+        <v>234.5635189974267</v>
       </c>
       <c r="G40" t="n">
-        <v>114.0578686404822</v>
+        <v>165.5321169459892</v>
       </c>
       <c r="H40" t="n">
-        <v>66.51211643218342</v>
+        <v>117.9863647376904</v>
       </c>
       <c r="I40" t="n">
         <v>66.51211643218342</v>
@@ -7354,28 +7354,28 @@
         <v>1927.294548088492</v>
       </c>
       <c r="R40" t="n">
-        <v>1927.294548088492</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S40" t="n">
-        <v>1834.280098489162</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T40" t="n">
-        <v>1711.184917632532</v>
+        <v>1522.683025816216</v>
       </c>
       <c r="U40" t="n">
-        <v>1422.082050758175</v>
+        <v>1233.58015894186</v>
       </c>
       <c r="V40" t="n">
-        <v>1266.068997126132</v>
+        <v>1077.567105309816</v>
       </c>
       <c r="W40" t="n">
-        <v>1075.323261663015</v>
+        <v>886.8213698466991</v>
       </c>
       <c r="X40" t="n">
-        <v>903.3718743647057</v>
+        <v>757.5032535225253</v>
       </c>
       <c r="Y40" t="n">
-        <v>781.250729795019</v>
+        <v>635.3821089528386</v>
       </c>
     </row>
     <row r="41">
@@ -7385,7 +7385,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1711.141932470374</v>
+        <v>1711.141932470373</v>
       </c>
       <c r="C41" t="n">
         <v>1440.850850103805</v>
@@ -7394,19 +7394,19 @@
         <v>1181.256586070898</v>
       </c>
       <c r="E41" t="n">
-        <v>894.1397680464972</v>
+        <v>894.1397680464974</v>
       </c>
       <c r="F41" t="n">
-        <v>581.825297830733</v>
+        <v>581.8252978307332</v>
       </c>
       <c r="G41" t="n">
-        <v>265.4242822495729</v>
+        <v>265.4242822495733</v>
       </c>
       <c r="H41" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I41" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J41" t="n">
         <v>255.3912473912088</v>
@@ -7415,43 +7415,43 @@
         <v>589.2106210810553</v>
       </c>
       <c r="L41" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M41" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N41" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O41" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P41" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q41" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R41" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S41" t="n">
-        <v>3313.98658771011</v>
+        <v>3313.986587710109</v>
       </c>
       <c r="T41" t="n">
-        <v>3206.680274668176</v>
+        <v>3206.680274668174</v>
       </c>
       <c r="U41" t="n">
         <v>3051.821232515855</v>
       </c>
       <c r="V41" t="n">
-        <v>2819.429779746128</v>
+        <v>2819.429779746127</v>
       </c>
       <c r="W41" t="n">
         <v>2565.332559049857</v>
       </c>
       <c r="X41" t="n">
-        <v>2290.538235362621</v>
+        <v>2290.53823536262</v>
       </c>
       <c r="Y41" t="n">
         <v>1999.070337960652</v>
@@ -7482,19 +7482,19 @@
         <v>176.021302392778</v>
       </c>
       <c r="H42" t="n">
-        <v>85.51940803064551</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I42" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J42" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228011</v>
       </c>
       <c r="K42" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031482</v>
       </c>
       <c r="L42" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M42" t="n">
         <v>1212.428070438129</v>
@@ -7543,34 +7543,34 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>500.9308303909359</v>
+        <v>453.7336441225987</v>
       </c>
       <c r="C43" t="n">
-        <v>430.6660820368724</v>
+        <v>383.4688957685352</v>
       </c>
       <c r="D43" t="n">
-        <v>280.5494426245366</v>
+        <v>332.023690930043</v>
       </c>
       <c r="E43" t="n">
-        <v>231.3077836159869</v>
+        <v>231.3077836159866</v>
       </c>
       <c r="F43" t="n">
-        <v>183.0892706919199</v>
+        <v>183.0892706919198</v>
       </c>
       <c r="G43" t="n">
-        <v>114.0578686404823</v>
+        <v>114.0578686404822</v>
       </c>
       <c r="H43" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I43" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J43" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K43" t="n">
-        <v>315.6219318279953</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L43" t="n">
         <v>632.1817302764914</v>
@@ -7591,28 +7591,28 @@
         <v>1927.294548088492</v>
       </c>
       <c r="R43" t="n">
-        <v>1927.294548088492</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S43" t="n">
-        <v>1834.280098489162</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T43" t="n">
-        <v>1711.184917632532</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U43" t="n">
-        <v>1478.120214357884</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V43" t="n">
-        <v>1322.10716072584</v>
+        <v>978.8956707359725</v>
       </c>
       <c r="W43" t="n">
-        <v>1131.361425262723</v>
+        <v>788.1499352728554</v>
       </c>
       <c r="X43" t="n">
-        <v>903.3718743647057</v>
+        <v>658.8318189486815</v>
       </c>
       <c r="Y43" t="n">
-        <v>682.5792952211756</v>
+        <v>536.7106743789949</v>
       </c>
     </row>
     <row r="44">
@@ -7631,25 +7631,25 @@
         <v>1181.256586070898</v>
       </c>
       <c r="E44" t="n">
-        <v>894.1397680464972</v>
+        <v>894.1397680464975</v>
       </c>
       <c r="F44" t="n">
-        <v>581.8252978307331</v>
+        <v>581.8252978307332</v>
       </c>
       <c r="G44" t="n">
-        <v>265.4242822495729</v>
+        <v>265.4242822495727</v>
       </c>
       <c r="H44" t="n">
-        <v>66.51211643218345</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I44" t="n">
-        <v>66.51211643218345</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J44" t="n">
         <v>255.3912473912088</v>
       </c>
       <c r="K44" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810551</v>
       </c>
       <c r="L44" t="n">
         <v>1040.244834329464</v>
@@ -7658,34 +7658,34 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N44" t="n">
-        <v>2120.555556060173</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O44" t="n">
-        <v>2623.52802693951</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P44" t="n">
-        <v>3018.302393296688</v>
+        <v>3018.302393296684</v>
       </c>
       <c r="Q44" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R44" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S44" t="n">
-        <v>3313.986587710111</v>
+        <v>3313.986587710109</v>
       </c>
       <c r="T44" t="n">
-        <v>3206.680274668176</v>
+        <v>3206.680274668174</v>
       </c>
       <c r="U44" t="n">
-        <v>3051.821232515857</v>
+        <v>3051.821232515854</v>
       </c>
       <c r="V44" t="n">
-        <v>2819.429779746129</v>
+        <v>2819.429779746127</v>
       </c>
       <c r="W44" t="n">
-        <v>2565.332559049857</v>
+        <v>2565.332559049856</v>
       </c>
       <c r="X44" t="n">
         <v>2290.53823536262</v>
@@ -7719,10 +7719,10 @@
         <v>176.021302392778</v>
       </c>
       <c r="H45" t="n">
-        <v>85.51940803064551</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I45" t="n">
-        <v>66.51211643218345</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J45" t="n">
         <v>160.1893859228007</v>
@@ -7731,7 +7731,7 @@
         <v>398.4535849031478</v>
       </c>
       <c r="L45" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M45" t="n">
         <v>1212.428070438129</v>
@@ -7780,34 +7780,34 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>698.2736995386226</v>
+        <v>500.9308303909353</v>
       </c>
       <c r="C46" t="n">
-        <v>529.3375166107157</v>
+        <v>430.6660820368719</v>
       </c>
       <c r="D46" t="n">
-        <v>477.8923117722234</v>
+        <v>280.5494426245361</v>
       </c>
       <c r="E46" t="n">
-        <v>329.9792181898302</v>
+        <v>231.3077836159866</v>
       </c>
       <c r="F46" t="n">
-        <v>183.0892706919199</v>
+        <v>183.0892706919197</v>
       </c>
       <c r="G46" t="n">
-        <v>114.0578686404823</v>
+        <v>114.0578686404821</v>
       </c>
       <c r="H46" t="n">
-        <v>66.51211643218345</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I46" t="n">
-        <v>66.51211643218345</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J46" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K46" t="n">
-        <v>315.6219318279953</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L46" t="n">
         <v>632.1817302764914</v>
@@ -7837,19 +7837,19 @@
         <v>1711.184917632532</v>
       </c>
       <c r="U46" t="n">
-        <v>1520.753485332018</v>
+        <v>1422.082050758175</v>
       </c>
       <c r="V46" t="n">
-        <v>1364.740431699975</v>
+        <v>1266.068997126132</v>
       </c>
       <c r="W46" t="n">
-        <v>1075.323261663014</v>
+        <v>1075.323261663015</v>
       </c>
       <c r="X46" t="n">
-        <v>946.0051453388404</v>
+        <v>847.3337107649972</v>
       </c>
       <c r="Y46" t="n">
-        <v>781.250729795019</v>
+        <v>682.579295221175</v>
       </c>
     </row>
   </sheetData>
@@ -8450,28 +8450,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>157.2353108430628</v>
+        <v>157.235310843063</v>
       </c>
       <c r="K8" t="n">
-        <v>184.4039433729004</v>
+        <v>184.4039433729006</v>
       </c>
       <c r="L8" t="n">
-        <v>191.4948909389599</v>
+        <v>191.4948909389602</v>
       </c>
       <c r="M8" t="n">
-        <v>181.0856325333062</v>
+        <v>181.0856325333065</v>
       </c>
       <c r="N8" t="n">
-        <v>179.3553748830236</v>
+        <v>179.3553748830238</v>
       </c>
       <c r="O8" t="n">
-        <v>182.8301554383985</v>
+        <v>182.8301554383988</v>
       </c>
       <c r="P8" t="n">
-        <v>190.8908035586581</v>
+        <v>190.8908035586583</v>
       </c>
       <c r="Q8" t="n">
-        <v>192.0103836266121</v>
+        <v>192.0103836266123</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8532,25 +8532,25 @@
         <v>112.6562001875973</v>
       </c>
       <c r="K9" t="n">
-        <v>113.6031223372531</v>
+        <v>113.6031223372532</v>
       </c>
       <c r="L9" t="n">
-        <v>105.9629718672271</v>
+        <v>105.9629718672272</v>
       </c>
       <c r="M9" t="n">
-        <v>104.1013981253589</v>
+        <v>104.1013981253591</v>
       </c>
       <c r="N9" t="n">
-        <v>92.30246558677615</v>
+        <v>92.30246558677635</v>
       </c>
       <c r="O9" t="n">
-        <v>106.8829608359732</v>
+        <v>106.8829608359734</v>
       </c>
       <c r="P9" t="n">
-        <v>105.3113487798321</v>
+        <v>105.3113487798323</v>
       </c>
       <c r="Q9" t="n">
-        <v>120.8212784615456</v>
+        <v>120.8212784615457</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8614,19 +8614,19 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L10" t="n">
-        <v>116.1755252564656</v>
+        <v>116.1755252564657</v>
       </c>
       <c r="M10" t="n">
-        <v>119.1996074085225</v>
+        <v>119.1996074085226</v>
       </c>
       <c r="N10" t="n">
-        <v>108.4284123140776</v>
+        <v>108.4284123140777</v>
       </c>
       <c r="O10" t="n">
-        <v>120.6694600530923</v>
+        <v>120.6694600530924</v>
       </c>
       <c r="P10" t="n">
-        <v>122.5080856662703</v>
+        <v>122.5080856662704</v>
       </c>
       <c r="Q10" t="n">
         <v>65.34295837775146</v>
@@ -8763,7 +8763,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.147526518252562e-12</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -9000,7 +9000,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.580957587066223e-12</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -9237,7 +9237,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.119104808822158e-12</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -9641,10 +9641,10 @@
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>339.8144253784351</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>127.4994347185291</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -9656,7 +9656,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -9711,7 +9711,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>2.735589532676386e-13</v>
+        <v>1.147526518252562e-12</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -9878,25 +9878,25 @@
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>306.6874953089277</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>336.8335818149118</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9948,7 +9948,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>8.775202786637237e-13</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -10115,22 +10115,22 @@
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>52.18875040233365</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>277.220684154416</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
         <v>65.71641987298243</v>
@@ -10352,16 +10352,16 @@
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>306.6874953089253</v>
+        <v>277.8321087236491</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
@@ -10370,7 +10370,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10422,7 +10422,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>8.633094239485217e-13</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -10449,7 +10449,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -11063,13 +11063,13 @@
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>1.591615728102624e-12</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>6.821210263296962e-13</v>
       </c>
       <c r="O41" t="n">
         <v>0</v>
@@ -11306,7 +11306,7 @@
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>2.501110429875553e-12</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
         <v>0</v>
@@ -11315,7 +11315,7 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>9.663381206337363e-13</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -23033,7 +23033,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>15.02219619719371</v>
+        <v>15.02219619719372</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -23258,22 +23258,22 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>338.3527451838811</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>76.99962904513654</v>
+        <v>327.7628950335564</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>379.9558991545849</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>29.95440217116289</v>
       </c>
       <c r="H11" t="n">
-        <v>267.687617800194</v>
+        <v>267.6876178001939</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23318,7 +23318,7 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>322.3208221302866</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23413,7 +23413,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>152.9118335948108</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23422,16 +23422,16 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>119.5138160594427</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>101.6726602836379</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>139.1056616719017</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>117.8348683271943</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23476,10 +23476,10 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>126.4256639454557</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>198.7895088019107</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23495,25 +23495,25 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>338.352745183881</v>
       </c>
       <c r="D14" t="n">
-        <v>327.7628950335565</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>355.0102234851353</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>379.9558991545849</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>267.687617800194</v>
       </c>
       <c r="I14" t="n">
-        <v>14.65678318579955</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23549,10 +23549,10 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>7.098800571998614</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>300.8321118830085</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23561,7 +23561,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>19.36455202083971</v>
       </c>
     </row>
     <row r="15">
@@ -23650,28 +23650,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>152.9118335948108</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>121.6953264310858</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>119.5138160594427</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>49.65072170174216</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>117.8348683271943</v>
       </c>
       <c r="I16" t="n">
-        <v>69.43227382271166</v>
+        <v>69.43227382271161</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23716,10 +23716,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>198.7895088019107</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>56.99339012274372</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23732,19 +23732,19 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>79.19514304898799</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>308.0350868665427</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>25.01703144686156</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -23789,7 +23789,7 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>253.8569752644159</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -23978,13 +23978,13 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>112.3396371318031</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>333.0521183134036</v>
       </c>
       <c r="H20" t="n">
-        <v>220.7124811816015</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24449,7 +24449,7 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>-1.20792265079217e-13</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -24689,7 +24689,7 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>-5.826450433232822e-13</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -25643,7 +25643,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>-5.471179065352771e-13</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25925,7 +25925,7 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>-1.360345675803696e-12</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>970400.9610006172</v>
+        <v>970400.9610006174</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>796454.3802730946</v>
+        <v>796454.3802730945</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>796454.3802730946</v>
+        <v>796454.3802730945</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>866319.5121402731</v>
+        <v>866319.5121402732</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>923647.8605567544</v>
+        <v>923647.8605567545</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>923647.8605567542</v>
+        <v>923647.8605567545</v>
       </c>
     </row>
     <row r="12">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>894818.7819043512</v>
+        <v>894818.7819043513</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>894818.7819043513</v>
+        <v>894818.7819043512</v>
       </c>
     </row>
   </sheetData>
@@ -26326,34 +26326,34 @@
         <v>492439.5006108581</v>
       </c>
       <c r="G2" t="n">
+        <v>536308.3043414118</v>
+      </c>
+      <c r="H2" t="n">
         <v>536308.3043414123</v>
       </c>
-      <c r="H2" t="n">
-        <v>536308.3043414121</v>
-      </c>
       <c r="I2" t="n">
+        <v>554203.1946583913</v>
+      </c>
+      <c r="J2" t="n">
         <v>554203.1946583914</v>
       </c>
-      <c r="J2" t="n">
+      <c r="K2" t="n">
         <v>554203.1946583916</v>
       </c>
-      <c r="K2" t="n">
-        <v>554203.1946583914</v>
-      </c>
       <c r="L2" t="n">
-        <v>554203.1946583918</v>
+        <v>554203.1946583915</v>
       </c>
       <c r="M2" t="n">
-        <v>554203.194658392</v>
+        <v>554203.1946583921</v>
       </c>
       <c r="N2" t="n">
         <v>554203.1946583918</v>
       </c>
       <c r="O2" t="n">
-        <v>554203.1946583915</v>
+        <v>554203.1946583914</v>
       </c>
       <c r="P2" t="n">
-        <v>554203.1946583915</v>
+        <v>554203.1946583914</v>
       </c>
     </row>
     <row r="3">
@@ -26369,34 +26369,34 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>59764.55367552346</v>
+        <v>59764.55367552313</v>
       </c>
       <c r="E3" t="n">
-        <v>1089238.972163631</v>
+        <v>1089238.972163632</v>
       </c>
       <c r="F3" t="n">
-        <v>1.797263848857256e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>37580.1092948739</v>
+        <v>37580.10929487424</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>22821.46782983375</v>
+        <v>22821.4678298336</v>
       </c>
       <c r="J3" t="n">
-        <v>25409.43302179704</v>
+        <v>25409.43302179707</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>37580.10929487409</v>
+        <v>37580.10929487406</v>
       </c>
       <c r="M3" t="n">
-        <v>202168.0999927243</v>
+        <v>202168.0999927242</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26421,37 +26421,37 @@
         <v>452399.9905489652</v>
       </c>
       <c r="D4" t="n">
-        <v>430603.4278954648</v>
+        <v>430603.4278954649</v>
       </c>
       <c r="E4" t="n">
-        <v>40024.16194364975</v>
+        <v>40024.16194364987</v>
       </c>
       <c r="F4" t="n">
-        <v>40024.16194364976</v>
+        <v>40024.16194364985</v>
       </c>
       <c r="G4" t="n">
-        <v>77052.32230509201</v>
+        <v>77052.32230509206</v>
       </c>
       <c r="H4" t="n">
-        <v>77052.32230509198</v>
+        <v>77052.32230509204</v>
       </c>
       <c r="I4" t="n">
-        <v>90617.51027754389</v>
+        <v>90617.51027754392</v>
       </c>
       <c r="J4" t="n">
-        <v>88960.95519699594</v>
+        <v>88960.95519699587</v>
       </c>
       <c r="K4" t="n">
-        <v>88960.95519699578</v>
+        <v>88960.9551969959</v>
       </c>
       <c r="L4" t="n">
-        <v>88960.95519699587</v>
+        <v>88960.9551969959</v>
       </c>
       <c r="M4" t="n">
-        <v>92183.89891818172</v>
+        <v>92183.89891818175</v>
       </c>
       <c r="N4" t="n">
-        <v>92183.89891818172</v>
+        <v>92183.89891818175</v>
       </c>
       <c r="O4" t="n">
         <v>92183.89891818177</v>
@@ -26473,43 +26473,43 @@
         <v>33627.6</v>
       </c>
       <c r="D5" t="n">
-        <v>35148.90543186638</v>
+        <v>35148.90543186637</v>
       </c>
       <c r="E5" t="n">
         <v>76569.49036482643</v>
       </c>
       <c r="F5" t="n">
-        <v>76569.49036482644</v>
+        <v>76569.4903648264</v>
       </c>
       <c r="G5" t="n">
+        <v>80518.64312521488</v>
+      </c>
+      <c r="H5" t="n">
         <v>80518.64312521489</v>
-      </c>
-      <c r="H5" t="n">
-        <v>80518.64312521488</v>
       </c>
       <c r="I5" t="n">
         <v>85736.5283018421</v>
       </c>
       <c r="J5" t="n">
-        <v>89377.94167480613</v>
+        <v>89377.94167480612</v>
       </c>
       <c r="K5" t="n">
-        <v>89377.9416748061</v>
+        <v>89377.94167480612</v>
       </c>
       <c r="L5" t="n">
-        <v>89377.9416748061</v>
+        <v>89377.94167480612</v>
       </c>
       <c r="M5" t="n">
         <v>82518.59730624985</v>
       </c>
       <c r="N5" t="n">
-        <v>82518.59730624984</v>
+        <v>82518.59730624985</v>
       </c>
       <c r="O5" t="n">
         <v>82518.59730624985</v>
       </c>
       <c r="P5" t="n">
-        <v>82518.59730624987</v>
+        <v>82518.59730624985</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>66983.93808503574</v>
+        <v>66979.52450716763</v>
       </c>
       <c r="C6" t="n">
-        <v>66983.93808503574</v>
+        <v>66979.52450716763</v>
       </c>
       <c r="D6" t="n">
-        <v>27509.71511615915</v>
+        <v>27505.35736601349</v>
       </c>
       <c r="E6" t="n">
-        <v>-713393.1238612493</v>
+        <v>-713621.8782836479</v>
       </c>
       <c r="F6" t="n">
-        <v>375845.8483023817</v>
+        <v>375617.0938799836</v>
       </c>
       <c r="G6" t="n">
-        <v>341157.2296162315</v>
+        <v>341090.9522446862</v>
       </c>
       <c r="H6" t="n">
-        <v>378737.3389111054</v>
+        <v>378671.061539561</v>
       </c>
       <c r="I6" t="n">
         <v>355027.6882491717</v>
       </c>
       <c r="J6" t="n">
-        <v>350454.8647647925</v>
+        <v>350454.8647647923</v>
       </c>
       <c r="K6" t="n">
         <v>375864.2977865897</v>
       </c>
       <c r="L6" t="n">
-        <v>338284.1884917157</v>
+        <v>338284.1884917154</v>
       </c>
       <c r="M6" t="n">
         <v>177332.5984412362</v>
       </c>
       <c r="N6" t="n">
-        <v>379500.6984339602</v>
+        <v>379500.6984339601</v>
       </c>
       <c r="O6" t="n">
-        <v>379500.6984339599</v>
+        <v>379500.6984339598</v>
       </c>
       <c r="P6" t="n">
-        <v>379500.6984339599</v>
+        <v>379500.6984339597</v>
       </c>
     </row>
   </sheetData>
@@ -26692,19 +26692,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>26.92014658712644</v>
+        <v>26.92014658712652</v>
       </c>
       <c r="F2" t="n">
-        <v>26.92014658712644</v>
+        <v>26.9201465871265</v>
       </c>
       <c r="G2" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571908</v>
       </c>
       <c r="H2" t="n">
-        <v>73.895283205719</v>
+        <v>73.89528320571908</v>
       </c>
       <c r="I2" t="n">
-        <v>73.895283205719</v>
+        <v>73.89528320571908</v>
       </c>
       <c r="J2" t="n">
         <v>46.97513661859256</v>
@@ -26713,19 +26713,19 @@
         <v>46.97513661859257</v>
       </c>
       <c r="L2" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M2" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="N2" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="O2" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="P2" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810505</v>
       </c>
     </row>
     <row r="3">
@@ -26741,13 +26741,13 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>69.7846528379072</v>
+        <v>69.78465283790682</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
       </c>
       <c r="F3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="G3" t="n">
         <v>1089.776700593298</v>
@@ -26799,25 +26799,25 @@
         <v>831.4014554022926</v>
       </c>
       <c r="F4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022923</v>
       </c>
       <c r="G4" t="n">
+        <v>831.4014554022923</v>
+      </c>
+      <c r="H4" t="n">
         <v>831.4014554022926</v>
       </c>
-      <c r="H4" t="n">
-        <v>831.4014554022924</v>
-      </c>
       <c r="I4" t="n">
-        <v>917.2219352810299</v>
+        <v>917.2219352810296</v>
       </c>
       <c r="J4" t="n">
         <v>1014.336461208615</v>
       </c>
       <c r="K4" t="n">
-        <v>1014.336461208614</v>
+        <v>1014.336461208615</v>
       </c>
       <c r="L4" t="n">
-        <v>1014.336461208614</v>
+        <v>1014.336461208615</v>
       </c>
       <c r="M4" t="n">
         <v>831.4014554022926</v>
@@ -26826,10 +26826,10 @@
         <v>831.4014554022926</v>
       </c>
       <c r="O4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="P4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022925</v>
       </c>
     </row>
   </sheetData>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>26.92014658712644</v>
+        <v>26.92014658712652</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26935,10 +26935,10 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="M2" t="n">
-        <v>50.70958360951238</v>
+        <v>50.70958360951246</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26963,16 +26963,16 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>69.7846528379072</v>
+        <v>69.78465283790682</v>
       </c>
       <c r="E3" t="n">
         <v>1019.992047755391</v>
       </c>
       <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
         <v>2.273736754432321e-13</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27030,19 +27030,19 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>85.8204798787375</v>
+        <v>85.82047987873693</v>
       </c>
       <c r="J4" t="n">
-        <v>97.11452592758496</v>
+        <v>97.11452592758508</v>
       </c>
       <c r="K4" t="n">
-        <v>-4.385213171535842e-13</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>648.466449595971</v>
+        <v>648.4664495959706</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>26.92014658712644</v>
+        <v>26.92014658712652</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27898,7 +27898,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>132.2465643780173</v>
+        <v>132.2465643780174</v>
       </c>
       <c r="S8" t="n">
         <v>202.6272343036572</v>
@@ -27950,7 +27950,7 @@
         <v>110.7857668256562</v>
       </c>
       <c r="I9" t="n">
-        <v>84.228618466721</v>
+        <v>84.22861846672103</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27977,7 +27977,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>90.83829126987507</v>
+        <v>90.83829126987513</v>
       </c>
       <c r="S9" t="n">
         <v>168.895076719229</v>
@@ -28029,13 +28029,13 @@
         <v>161.1083300406285</v>
       </c>
       <c r="I10" t="n">
-        <v>151.6660875241796</v>
+        <v>151.6660875241797</v>
       </c>
       <c r="J10" t="n">
-        <v>84.46220888519073</v>
+        <v>84.46220888519079</v>
       </c>
       <c r="K10" t="n">
-        <v>7.649035050990168</v>
+        <v>7.649035050990248</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -28053,7 +28053,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>75.62456067317039</v>
+        <v>75.62456067317045</v>
       </c>
       <c r="R10" t="n">
         <v>171.6351144437877</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>26.92014658712644</v>
+        <v>26.92014658712652</v>
       </c>
       <c r="C11" t="n">
-        <v>26.92014658712644</v>
+        <v>26.92014658712652</v>
       </c>
       <c r="D11" t="n">
-        <v>26.92014658712644</v>
+        <v>26.92014658712652</v>
       </c>
       <c r="E11" t="n">
-        <v>26.92014658712644</v>
+        <v>26.92014658712652</v>
       </c>
       <c r="F11" t="n">
-        <v>26.92014658712644</v>
+        <v>26.92014658712652</v>
       </c>
       <c r="G11" t="n">
-        <v>26.92014658712644</v>
+        <v>26.92014658712652</v>
       </c>
       <c r="H11" t="n">
-        <v>26.92014658712644</v>
+        <v>26.92014658712652</v>
       </c>
       <c r="I11" t="n">
-        <v>26.92014658712644</v>
+        <v>26.92014658712652</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>26.92014658712644</v>
+        <v>26.92014658712652</v>
       </c>
       <c r="T11" t="n">
-        <v>26.92014658712644</v>
+        <v>26.92014658712652</v>
       </c>
       <c r="U11" t="n">
-        <v>26.92014658712644</v>
+        <v>26.92014658712652</v>
       </c>
       <c r="V11" t="n">
-        <v>26.92014658712644</v>
+        <v>26.92014658712652</v>
       </c>
       <c r="W11" t="n">
-        <v>26.92014658712644</v>
+        <v>26.92014658712652</v>
       </c>
       <c r="X11" t="n">
-        <v>26.92014658712644</v>
+        <v>26.92014658712652</v>
       </c>
       <c r="Y11" t="n">
-        <v>26.92014658712644</v>
+        <v>26.92014658712652</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>26.92014658712644</v>
+        <v>26.92014658712652</v>
       </c>
       <c r="C13" t="n">
-        <v>26.92014658712644</v>
+        <v>26.92014658712652</v>
       </c>
       <c r="D13" t="n">
-        <v>26.92014658712644</v>
+        <v>26.92014658712652</v>
       </c>
       <c r="E13" t="n">
-        <v>26.92014658712644</v>
+        <v>26.92014658712652</v>
       </c>
       <c r="F13" t="n">
-        <v>26.92014658712644</v>
+        <v>26.92014658712652</v>
       </c>
       <c r="G13" t="n">
-        <v>26.92014658712644</v>
+        <v>26.92014658712652</v>
       </c>
       <c r="H13" t="n">
-        <v>26.92014658712644</v>
+        <v>26.92014658712652</v>
       </c>
       <c r="I13" t="n">
-        <v>26.92014658712644</v>
+        <v>26.92014658712652</v>
       </c>
       <c r="J13" t="n">
-        <v>26.92014658712644</v>
+        <v>26.92014658712652</v>
       </c>
       <c r="K13" t="n">
-        <v>26.92014658712644</v>
+        <v>26.92014658712652</v>
       </c>
       <c r="L13" t="n">
-        <v>26.92014658712644</v>
+        <v>26.92014658712652</v>
       </c>
       <c r="M13" t="n">
-        <v>26.92014658712644</v>
+        <v>26.92014658712652</v>
       </c>
       <c r="N13" t="n">
-        <v>26.92014658712644</v>
+        <v>26.92014658712652</v>
       </c>
       <c r="O13" t="n">
-        <v>26.92014658712644</v>
+        <v>26.92014658712652</v>
       </c>
       <c r="P13" t="n">
-        <v>26.92014658712644</v>
+        <v>26.92014658712652</v>
       </c>
       <c r="Q13" t="n">
-        <v>26.92014658712644</v>
+        <v>26.92014658712652</v>
       </c>
       <c r="R13" t="n">
-        <v>26.92014658712644</v>
+        <v>26.92014658712652</v>
       </c>
       <c r="S13" t="n">
-        <v>26.92014658712644</v>
+        <v>26.92014658712652</v>
       </c>
       <c r="T13" t="n">
-        <v>26.92014658712644</v>
+        <v>26.92014658712652</v>
       </c>
       <c r="U13" t="n">
-        <v>26.92014658712644</v>
+        <v>26.92014658712652</v>
       </c>
       <c r="V13" t="n">
-        <v>26.92014658712644</v>
+        <v>26.92014658712652</v>
       </c>
       <c r="W13" t="n">
-        <v>26.92014658712644</v>
+        <v>26.92014658712652</v>
       </c>
       <c r="X13" t="n">
-        <v>26.92014658712644</v>
+        <v>26.92014658712652</v>
       </c>
       <c r="Y13" t="n">
-        <v>26.92014658712644</v>
+        <v>26.92014658712652</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>26.92014658712644</v>
+        <v>26.9201465871265</v>
       </c>
       <c r="C14" t="n">
-        <v>26.92014658712644</v>
+        <v>26.9201465871265</v>
       </c>
       <c r="D14" t="n">
-        <v>26.92014658712644</v>
+        <v>26.9201465871265</v>
       </c>
       <c r="E14" t="n">
-        <v>26.92014658712644</v>
+        <v>26.9201465871265</v>
       </c>
       <c r="F14" t="n">
-        <v>26.92014658712644</v>
+        <v>26.9201465871265</v>
       </c>
       <c r="G14" t="n">
-        <v>26.92014658712644</v>
+        <v>26.9201465871265</v>
       </c>
       <c r="H14" t="n">
-        <v>26.92014658712644</v>
+        <v>26.9201465871265</v>
       </c>
       <c r="I14" t="n">
-        <v>26.92014658712644</v>
+        <v>26.9201465871265</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>26.92014658712644</v>
+        <v>26.9201465871265</v>
       </c>
       <c r="T14" t="n">
-        <v>26.92014658712644</v>
+        <v>26.9201465871265</v>
       </c>
       <c r="U14" t="n">
-        <v>26.92014658712644</v>
+        <v>26.9201465871265</v>
       </c>
       <c r="V14" t="n">
-        <v>26.92014658712644</v>
+        <v>26.9201465871265</v>
       </c>
       <c r="W14" t="n">
-        <v>26.92014658712644</v>
+        <v>26.9201465871265</v>
       </c>
       <c r="X14" t="n">
-        <v>26.92014658712644</v>
+        <v>26.9201465871265</v>
       </c>
       <c r="Y14" t="n">
-        <v>26.92014658712644</v>
+        <v>26.9201465871265</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>26.92014658712644</v>
+        <v>26.9201465871265</v>
       </c>
       <c r="C16" t="n">
-        <v>26.92014658712644</v>
+        <v>26.9201465871265</v>
       </c>
       <c r="D16" t="n">
-        <v>26.92014658712644</v>
+        <v>26.9201465871265</v>
       </c>
       <c r="E16" t="n">
-        <v>26.92014658712644</v>
+        <v>26.9201465871265</v>
       </c>
       <c r="F16" t="n">
-        <v>26.92014658712644</v>
+        <v>26.9201465871265</v>
       </c>
       <c r="G16" t="n">
-        <v>26.92014658712644</v>
+        <v>26.9201465871265</v>
       </c>
       <c r="H16" t="n">
-        <v>26.92014658712644</v>
+        <v>26.9201465871265</v>
       </c>
       <c r="I16" t="n">
-        <v>26.92014658712644</v>
+        <v>26.9201465871265</v>
       </c>
       <c r="J16" t="n">
-        <v>26.92014658712644</v>
+        <v>26.9201465871265</v>
       </c>
       <c r="K16" t="n">
-        <v>26.92014658712644</v>
+        <v>26.9201465871265</v>
       </c>
       <c r="L16" t="n">
-        <v>26.92014658712644</v>
+        <v>26.9201465871265</v>
       </c>
       <c r="M16" t="n">
-        <v>26.92014658712644</v>
+        <v>26.9201465871265</v>
       </c>
       <c r="N16" t="n">
-        <v>26.92014658712644</v>
+        <v>26.9201465871265</v>
       </c>
       <c r="O16" t="n">
-        <v>26.92014658712644</v>
+        <v>26.9201465871265</v>
       </c>
       <c r="P16" t="n">
-        <v>26.92014658712644</v>
+        <v>26.9201465871265</v>
       </c>
       <c r="Q16" t="n">
-        <v>26.92014658712644</v>
+        <v>26.9201465871265</v>
       </c>
       <c r="R16" t="n">
-        <v>26.92014658712644</v>
+        <v>26.9201465871265</v>
       </c>
       <c r="S16" t="n">
-        <v>26.92014658712644</v>
+        <v>26.9201465871265</v>
       </c>
       <c r="T16" t="n">
-        <v>26.92014658712644</v>
+        <v>26.9201465871265</v>
       </c>
       <c r="U16" t="n">
-        <v>26.92014658712644</v>
+        <v>26.9201465871265</v>
       </c>
       <c r="V16" t="n">
-        <v>26.92014658712644</v>
+        <v>26.9201465871265</v>
       </c>
       <c r="W16" t="n">
-        <v>26.92014658712644</v>
+        <v>26.9201465871265</v>
       </c>
       <c r="X16" t="n">
-        <v>26.92014658712644</v>
+        <v>26.9201465871265</v>
       </c>
       <c r="Y16" t="n">
-        <v>26.92014658712644</v>
+        <v>26.9201465871265</v>
       </c>
     </row>
     <row r="17">
@@ -28561,28 +28561,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571908</v>
       </c>
       <c r="C17" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571908</v>
       </c>
       <c r="D17" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571908</v>
       </c>
       <c r="E17" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571908</v>
       </c>
       <c r="F17" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571908</v>
       </c>
       <c r="G17" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571908</v>
       </c>
       <c r="H17" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571908</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571908</v>
       </c>
       <c r="T17" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571908</v>
       </c>
       <c r="U17" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571908</v>
       </c>
       <c r="V17" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571908</v>
       </c>
       <c r="W17" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571908</v>
       </c>
       <c r="X17" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571908</v>
       </c>
       <c r="Y17" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571908</v>
       </c>
     </row>
     <row r="18">
@@ -28719,28 +28719,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571908</v>
       </c>
       <c r="C19" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571908</v>
       </c>
       <c r="D19" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571908</v>
       </c>
       <c r="E19" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571908</v>
       </c>
       <c r="F19" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571908</v>
       </c>
       <c r="G19" t="n">
-        <v>11.49558901075511</v>
+        <v>73.89528320571908</v>
       </c>
       <c r="H19" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571908</v>
       </c>
       <c r="I19" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571908</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -28767,28 +28767,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571908</v>
       </c>
       <c r="S19" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571908</v>
       </c>
       <c r="T19" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571908</v>
       </c>
       <c r="U19" t="n">
-        <v>73.89528320571904</v>
+        <v>11.49558901075551</v>
       </c>
       <c r="V19" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571908</v>
       </c>
       <c r="W19" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571908</v>
       </c>
       <c r="X19" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571908</v>
       </c>
       <c r="Y19" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571908</v>
       </c>
     </row>
     <row r="20">
@@ -28798,25 +28798,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>73.895283205719</v>
+        <v>73.89528320571908</v>
       </c>
       <c r="C20" t="n">
-        <v>73.895283205719</v>
+        <v>73.89528320571908</v>
       </c>
       <c r="D20" t="n">
-        <v>73.895283205719</v>
+        <v>73.89528320571908</v>
       </c>
       <c r="E20" t="n">
-        <v>73.895283205719</v>
+        <v>73.89528320571908</v>
       </c>
       <c r="F20" t="n">
-        <v>73.895283205719</v>
+        <v>73.89528320571908</v>
       </c>
       <c r="G20" t="n">
-        <v>73.895283205719</v>
+        <v>73.89528320571908</v>
       </c>
       <c r="H20" t="n">
-        <v>73.895283205719</v>
+        <v>73.89528320571908</v>
       </c>
       <c r="I20" t="n">
         <v>41.57692977292598</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>73.895283205719</v>
+        <v>73.89528320571908</v>
       </c>
       <c r="T20" t="n">
-        <v>73.895283205719</v>
+        <v>73.89528320571908</v>
       </c>
       <c r="U20" t="n">
-        <v>73.895283205719</v>
+        <v>73.89528320571908</v>
       </c>
       <c r="V20" t="n">
-        <v>73.895283205719</v>
+        <v>73.89528320571908</v>
       </c>
       <c r="W20" t="n">
-        <v>73.895283205719</v>
+        <v>73.89528320571908</v>
       </c>
       <c r="X20" t="n">
-        <v>73.895283205719</v>
+        <v>73.89528320571908</v>
       </c>
       <c r="Y20" t="n">
-        <v>73.895283205719</v>
+        <v>73.89528320571908</v>
       </c>
     </row>
     <row r="21">
@@ -28956,28 +28956,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>73.895283205719</v>
+        <v>73.89528320571908</v>
       </c>
       <c r="C22" t="n">
-        <v>73.895283205719</v>
+        <v>73.89528320571908</v>
       </c>
       <c r="D22" t="n">
-        <v>73.895283205719</v>
+        <v>73.89528320571908</v>
       </c>
       <c r="E22" t="n">
-        <v>73.895283205719</v>
+        <v>73.89528320571908</v>
       </c>
       <c r="F22" t="n">
-        <v>73.895283205719</v>
+        <v>73.89528320571908</v>
       </c>
       <c r="G22" t="n">
-        <v>73.895283205719</v>
+        <v>73.89528320571908</v>
       </c>
       <c r="H22" t="n">
-        <v>73.895283205719</v>
+        <v>73.89528320571908</v>
       </c>
       <c r="I22" t="n">
-        <v>73.895283205719</v>
+        <v>73.89528320571908</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -29004,28 +29004,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>73.895283205719</v>
+        <v>73.89528320571908</v>
       </c>
       <c r="S22" t="n">
-        <v>73.895283205719</v>
+        <v>73.89528320571908</v>
       </c>
       <c r="T22" t="n">
-        <v>73.895283205719</v>
+        <v>73.89528320571908</v>
       </c>
       <c r="U22" t="n">
-        <v>73.895283205719</v>
+        <v>73.89528320571908</v>
       </c>
       <c r="V22" t="n">
-        <v>73.895283205719</v>
+        <v>73.89528320571908</v>
       </c>
       <c r="W22" t="n">
-        <v>73.895283205719</v>
+        <v>73.89528320571908</v>
       </c>
       <c r="X22" t="n">
-        <v>73.895283205719</v>
+        <v>73.89528320571908</v>
       </c>
       <c r="Y22" t="n">
-        <v>11.49558901075645</v>
+        <v>11.49558901075542</v>
       </c>
     </row>
     <row r="23">
@@ -29035,25 +29035,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>73.895283205719</v>
+        <v>73.89528320571908</v>
       </c>
       <c r="C23" t="n">
-        <v>73.895283205719</v>
+        <v>73.89528320571908</v>
       </c>
       <c r="D23" t="n">
-        <v>73.895283205719</v>
+        <v>73.89528320571908</v>
       </c>
       <c r="E23" t="n">
-        <v>73.895283205719</v>
+        <v>73.89528320571908</v>
       </c>
       <c r="F23" t="n">
-        <v>73.895283205719</v>
+        <v>73.89528320571908</v>
       </c>
       <c r="G23" t="n">
-        <v>73.895283205719</v>
+        <v>73.89528320571908</v>
       </c>
       <c r="H23" t="n">
-        <v>73.895283205719</v>
+        <v>73.89528320571908</v>
       </c>
       <c r="I23" t="n">
         <v>41.57692977292598</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>73.895283205719</v>
+        <v>73.89528320571908</v>
       </c>
       <c r="T23" t="n">
-        <v>73.895283205719</v>
+        <v>73.89528320571908</v>
       </c>
       <c r="U23" t="n">
-        <v>73.895283205719</v>
+        <v>73.89528320571908</v>
       </c>
       <c r="V23" t="n">
-        <v>73.895283205719</v>
+        <v>73.89528320571908</v>
       </c>
       <c r="W23" t="n">
-        <v>73.895283205719</v>
+        <v>73.89528320571908</v>
       </c>
       <c r="X23" t="n">
-        <v>73.895283205719</v>
+        <v>73.89528320571908</v>
       </c>
       <c r="Y23" t="n">
-        <v>73.895283205719</v>
+        <v>73.89528320571908</v>
       </c>
     </row>
     <row r="24">
@@ -29193,28 +29193,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>73.895283205719</v>
+        <v>11.49558901075534</v>
       </c>
       <c r="C25" t="n">
-        <v>73.895283205719</v>
+        <v>73.89528320571908</v>
       </c>
       <c r="D25" t="n">
-        <v>73.895283205719</v>
+        <v>73.89528320571908</v>
       </c>
       <c r="E25" t="n">
-        <v>73.895283205719</v>
+        <v>73.89528320571908</v>
       </c>
       <c r="F25" t="n">
-        <v>73.895283205719</v>
+        <v>73.89528320571908</v>
       </c>
       <c r="G25" t="n">
-        <v>73.895283205719</v>
+        <v>73.89528320571908</v>
       </c>
       <c r="H25" t="n">
-        <v>73.895283205719</v>
+        <v>73.89528320571908</v>
       </c>
       <c r="I25" t="n">
-        <v>73.895283205719</v>
+        <v>73.89528320571908</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -29241,28 +29241,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>11.49558901075655</v>
+        <v>73.89528320571908</v>
       </c>
       <c r="S25" t="n">
-        <v>73.895283205719</v>
+        <v>73.89528320571908</v>
       </c>
       <c r="T25" t="n">
-        <v>73.895283205719</v>
+        <v>73.89528320571908</v>
       </c>
       <c r="U25" t="n">
-        <v>73.895283205719</v>
+        <v>73.89528320571908</v>
       </c>
       <c r="V25" t="n">
-        <v>73.895283205719</v>
+        <v>73.89528320571908</v>
       </c>
       <c r="W25" t="n">
-        <v>73.895283205719</v>
+        <v>73.89528320571908</v>
       </c>
       <c r="X25" t="n">
-        <v>73.895283205719</v>
+        <v>73.89528320571908</v>
       </c>
       <c r="Y25" t="n">
-        <v>73.895283205719</v>
+        <v>73.89528320571908</v>
       </c>
     </row>
     <row r="26">
@@ -29530,7 +29530,7 @@
         <v>46.97513661859257</v>
       </c>
       <c r="I29" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -29746,25 +29746,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I32" t="n">
         <v>41.57692977292598</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Q34" t="n">
-        <v>46.97513661859213</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="R34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="35">
@@ -29983,25 +29983,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="C35" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="D35" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="E35" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="F35" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="G35" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="H35" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="I35" t="n">
         <v>41.57692977292598</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="T35" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="U35" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="V35" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="W35" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="X35" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="Y35" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810502</v>
       </c>
     </row>
     <row r="36">
@@ -30141,25 +30141,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>55.47778196371158</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="C37" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="D37" t="n">
-        <v>97.68472022810496</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>55.47778196371115</v>
       </c>
       <c r="F37" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="G37" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="H37" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="I37" t="n">
         <v>96.35242040983812</v>
@@ -30192,16 +30192,16 @@
         <v>88.93215267004734</v>
       </c>
       <c r="S37" t="n">
-        <v>97.68472022810496</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="U37" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -30210,7 +30210,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810502</v>
       </c>
     </row>
     <row r="38">
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="C38" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="D38" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="E38" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="F38" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="G38" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="H38" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="I38" t="n">
         <v>41.57692977292598</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="T38" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="U38" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="V38" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="W38" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="X38" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="Y38" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
     </row>
     <row r="39">
@@ -30378,28 +30378,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="C40" t="n">
-        <v>97.68472022810495</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="G40" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="H40" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="I40" t="n">
-        <v>96.35242040983812</v>
+        <v>45.39291458738619</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -30426,28 +30426,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>97.68472022810495</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="W40" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="X40" t="n">
-        <v>55.47778196371138</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="Y40" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
     </row>
     <row r="41">
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="C41" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="D41" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="E41" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="F41" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="G41" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="H41" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="I41" t="n">
         <v>41.57692977292598</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="T41" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="U41" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="V41" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="W41" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="X41" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="Y41" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
     </row>
     <row r="42">
@@ -30615,25 +30615,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="C43" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="E43" t="n">
-        <v>97.68472022810495</v>
+        <v>46.72521440565342</v>
       </c>
       <c r="F43" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="G43" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="H43" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="I43" t="n">
         <v>96.35242040983812</v>
@@ -30663,28 +30663,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>97.68472022810495</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>97.68472022810495</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>55.47778196371152</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="W43" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>97.68472022810502</v>
       </c>
     </row>
     <row r="44">
@@ -30694,25 +30694,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="C44" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="D44" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="E44" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="F44" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="G44" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="H44" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="I44" t="n">
         <v>41.57692977292598</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="T44" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="U44" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="V44" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="W44" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="X44" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="Y44" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810505</v>
       </c>
     </row>
     <row r="45">
@@ -30852,25 +30852,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>97.68472022810495</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="D46" t="n">
-        <v>97.68472022810495</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="G46" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="H46" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="I46" t="n">
         <v>96.35242040983812</v>
@@ -30903,25 +30903,25 @@
         <v>88.93215267004734</v>
       </c>
       <c r="S46" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="T46" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="U46" t="n">
-        <v>97.68472022810495</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="X46" t="n">
-        <v>97.68472022810495</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>55.47778196371158</v>
+        <v>55.47778196371078</v>
       </c>
     </row>
   </sheetData>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.2805413179413353</v>
+        <v>0.2805413179413337</v>
       </c>
       <c r="H8" t="n">
-        <v>2.873093772366701</v>
+        <v>2.873093772366685</v>
       </c>
       <c r="I8" t="n">
-        <v>10.81556915993334</v>
+        <v>10.81556915993328</v>
       </c>
       <c r="J8" t="n">
-        <v>23.81059368362343</v>
+        <v>23.8105936836233</v>
       </c>
       <c r="K8" t="n">
-        <v>35.68590767208016</v>
+        <v>35.68590767207996</v>
       </c>
       <c r="L8" t="n">
-        <v>44.2715240310273</v>
+        <v>44.27152403102706</v>
       </c>
       <c r="M8" t="n">
-        <v>49.26060069396652</v>
+        <v>49.26060069396625</v>
       </c>
       <c r="N8" t="n">
-        <v>50.05768871356734</v>
+        <v>50.05768871356707</v>
       </c>
       <c r="O8" t="n">
-        <v>47.26805598328819</v>
+        <v>47.26805598328793</v>
       </c>
       <c r="P8" t="n">
-        <v>40.34219219661147</v>
+        <v>40.34219219661125</v>
       </c>
       <c r="Q8" t="n">
-        <v>30.29530624783739</v>
+        <v>30.29530624783722</v>
       </c>
       <c r="R8" t="n">
-        <v>17.62255356313242</v>
+        <v>17.62255356313232</v>
       </c>
       <c r="S8" t="n">
-        <v>6.392835282588184</v>
+        <v>6.392835282588149</v>
       </c>
       <c r="T8" t="n">
-        <v>1.228069619288196</v>
+        <v>1.228069619288189</v>
       </c>
       <c r="U8" t="n">
-        <v>0.02244330543530682</v>
+        <v>0.02244330543530669</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1501028381796495</v>
+        <v>0.1501028381796486</v>
       </c>
       <c r="H9" t="n">
-        <v>1.449677410840299</v>
+        <v>1.449677410840291</v>
       </c>
       <c r="I9" t="n">
-        <v>5.168014384694072</v>
+        <v>5.168014384694043</v>
       </c>
       <c r="J9" t="n">
-        <v>14.18142647906943</v>
+        <v>14.18142647906935</v>
       </c>
       <c r="K9" t="n">
-        <v>24.23831663710594</v>
+        <v>24.23831663710581</v>
       </c>
       <c r="L9" t="n">
-        <v>32.59140791264713</v>
+        <v>32.59140791264696</v>
       </c>
       <c r="M9" t="n">
-        <v>38.03263579665942</v>
+        <v>38.03263579665921</v>
       </c>
       <c r="N9" t="n">
-        <v>39.03924649655716</v>
+        <v>39.03924649655695</v>
       </c>
       <c r="O9" t="n">
-        <v>35.71328360847124</v>
+        <v>35.71328360847105</v>
       </c>
       <c r="P9" t="n">
-        <v>28.66305863449815</v>
+        <v>28.66305863449799</v>
       </c>
       <c r="Q9" t="n">
-        <v>19.16049562447596</v>
+        <v>19.16049562447585</v>
       </c>
       <c r="R9" t="n">
-        <v>9.319542882768063</v>
+        <v>9.319542882768012</v>
       </c>
       <c r="S9" t="n">
-        <v>2.788094384608838</v>
+        <v>2.788094384608823</v>
       </c>
       <c r="T9" t="n">
-        <v>0.6050197731890254</v>
+        <v>0.6050197731890221</v>
       </c>
       <c r="U9" t="n">
-        <v>0.009875186722345363</v>
+        <v>0.00987518672234531</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1258411772486851</v>
+        <v>0.1258411772486844</v>
       </c>
       <c r="H10" t="n">
-        <v>1.118842466811037</v>
+        <v>1.118842466811031</v>
       </c>
       <c r="I10" t="n">
-        <v>3.78438740307864</v>
+        <v>3.78438740307862</v>
       </c>
       <c r="J10" t="n">
-        <v>8.896971231482036</v>
+        <v>8.896971231481988</v>
       </c>
       <c r="K10" t="n">
-        <v>14.62045677489268</v>
+        <v>14.6204567748926</v>
       </c>
       <c r="L10" t="n">
-        <v>18.70915102477269</v>
+        <v>18.70915102477259</v>
       </c>
       <c r="M10" t="n">
-        <v>19.72617653908252</v>
+        <v>19.72617653908241</v>
       </c>
       <c r="N10" t="n">
-        <v>19.25713215115562</v>
+        <v>19.25713215115551</v>
       </c>
       <c r="O10" t="n">
-        <v>17.78707839875052</v>
+        <v>17.78707839875042</v>
       </c>
       <c r="P10" t="n">
-        <v>15.21991838287733</v>
+        <v>15.21991838287724</v>
       </c>
       <c r="Q10" t="n">
-        <v>10.53748257852399</v>
+        <v>10.53748257852393</v>
       </c>
       <c r="R10" t="n">
-        <v>5.658276933381785</v>
+        <v>5.658276933381754</v>
       </c>
       <c r="S10" t="n">
-        <v>2.193068516233903</v>
+        <v>2.193068516233891</v>
       </c>
       <c r="T10" t="n">
-        <v>0.5376850300625635</v>
+        <v>0.5376850300625605</v>
       </c>
       <c r="U10" t="n">
-        <v>0.00686406421356465</v>
+        <v>0.006864064213564613</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,43 +31750,43 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H11" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I11" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J11" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K11" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R11" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T11" t="n">
         <v>19.1778794245112</v>
@@ -31835,40 +31835,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I12" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K12" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O12" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R12" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U12" t="n">
         <v>0.1542136840462215</v>
@@ -31908,13 +31908,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H13" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I13" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J13" t="n">
         <v>138.937596729739</v>
@@ -31923,16 +31923,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L13" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M13" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P13" t="n">
         <v>237.6785118802169</v>
@@ -31941,16 +31941,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681596</v>
       </c>
       <c r="H14" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844665</v>
       </c>
       <c r="I14" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J14" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953987</v>
       </c>
       <c r="K14" t="n">
-        <v>557.2811376003812</v>
+        <v>557.2811376003808</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623191</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574991</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095025</v>
+        <v>781.714899009502</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099056</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746411</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.0999946781691</v>
+        <v>473.0999946781688</v>
       </c>
       <c r="R14" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806946</v>
       </c>
       <c r="T14" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U14" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345276</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,46 +32066,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502565</v>
       </c>
       <c r="H15" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I15" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752254</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K15" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138794</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233473</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837921</v>
       </c>
       <c r="O15" t="n">
-        <v>557.7086478970251</v>
+        <v>557.7086478970248</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002925</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R15" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898494</v>
       </c>
       <c r="U15" t="n">
         <v>0.1542136840462215</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H16" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I16" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J16" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297389</v>
       </c>
       <c r="K16" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702023</v>
       </c>
       <c r="L16" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M16" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316431</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P16" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802168</v>
       </c>
       <c r="Q16" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712211</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112292</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,43 +32224,43 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H17" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I17" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J17" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K17" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R17" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T17" t="n">
         <v>19.1778794245112</v>
@@ -32309,40 +32309,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I18" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K18" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O18" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R18" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U18" t="n">
         <v>0.1542136840462215</v>
@@ -32382,13 +32382,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H19" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I19" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J19" t="n">
         <v>138.937596729739</v>
@@ -32397,16 +32397,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L19" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M19" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P19" t="n">
         <v>237.6785118802169</v>
@@ -32415,16 +32415,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -33023,7 +33023,7 @@
         <v>80.70516131752255</v>
       </c>
       <c r="J27" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026444</v>
       </c>
       <c r="K27" t="n">
         <v>378.5123470353157</v>
@@ -33172,43 +33172,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H29" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I29" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J29" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K29" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L29" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M29" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N29" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O29" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P29" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q29" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R29" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S29" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T29" t="n">
         <v>19.1778794245112</v>
@@ -33257,40 +33257,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I30" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J30" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026444</v>
       </c>
       <c r="K30" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L30" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M30" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N30" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O30" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P30" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R30" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S30" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T30" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U30" t="n">
         <v>0.1542136840462215</v>
@@ -33330,13 +33330,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H31" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I31" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J31" t="n">
         <v>138.937596729739</v>
@@ -33345,16 +33345,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L31" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M31" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N31" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O31" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P31" t="n">
         <v>237.6785118802169</v>
@@ -33363,16 +33363,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R31" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S31" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T31" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33974,7 +33974,7 @@
         <v>221.4611312026437</v>
       </c>
       <c r="K39" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353161</v>
       </c>
       <c r="L39" t="n">
         <v>508.9565619138795</v>
@@ -33992,7 +33992,7 @@
         <v>447.6103584002926</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987494</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
@@ -34208,7 +34208,7 @@
         <v>80.70516131752255</v>
       </c>
       <c r="J42" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026441</v>
       </c>
       <c r="K42" t="n">
         <v>378.5123470353157</v>
@@ -34220,7 +34220,7 @@
         <v>593.9283018233474</v>
       </c>
       <c r="N42" t="n">
-        <v>609.6478166837928</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O42" t="n">
         <v>557.7086478970249</v>
@@ -34451,13 +34451,13 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138799</v>
       </c>
       <c r="M45" t="n">
         <v>593.9283018233474</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O45" t="n">
         <v>557.7086478970249</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N11" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O11" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P11" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K12" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P12" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,19 +35565,19 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>72.49856320019266</v>
+        <v>72.49856320019271</v>
       </c>
       <c r="K13" t="n">
         <v>232.967806131446</v>
       </c>
       <c r="L13" t="n">
-        <v>346.6775187573245</v>
+        <v>346.6775187573246</v>
       </c>
       <c r="M13" t="n">
         <v>374.5535259806103</v>
       </c>
       <c r="N13" t="n">
-        <v>371.7770927546665</v>
+        <v>371.7770927546666</v>
       </c>
       <c r="O13" t="n">
         <v>329.2732768097662</v>
@@ -35586,7 +35586,7 @@
         <v>261.8772177322369</v>
       </c>
       <c r="Q13" t="n">
-        <v>105.3143851250201</v>
+        <v>105.3143851250202</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687124</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554003</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923318</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302264</v>
       </c>
       <c r="N14" t="n">
-        <v>552.3018354129115</v>
+        <v>552.301835412911</v>
       </c>
       <c r="O14" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882189</v>
       </c>
       <c r="P14" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193715</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037193</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222467</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.62350453597716</v>
+        <v>94.62350453597702</v>
       </c>
       <c r="K15" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340052</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013293</v>
+        <v>451.794267901329</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004589</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525803</v>
       </c>
       <c r="P15" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859623</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,25 +35802,25 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>72.49856320019269</v>
+        <v>72.49856320019268</v>
       </c>
       <c r="K16" t="n">
-        <v>232.9678061314461</v>
+        <v>232.967806131446</v>
       </c>
       <c r="L16" t="n">
-        <v>346.6775187573246</v>
+        <v>346.6775187573245</v>
       </c>
       <c r="M16" t="n">
-        <v>374.5535259806103</v>
+        <v>374.5535259806102</v>
       </c>
       <c r="N16" t="n">
-        <v>371.7770927546666</v>
+        <v>371.7770927546665</v>
       </c>
       <c r="O16" t="n">
-        <v>329.2732768097663</v>
+        <v>329.2732768097662</v>
       </c>
       <c r="P16" t="n">
-        <v>261.8772177322369</v>
+        <v>261.8772177322368</v>
       </c>
       <c r="Q16" t="n">
         <v>105.3143851250201</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K17" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N17" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O17" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P17" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K18" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P18" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,10 +36039,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K19" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L19" t="n">
         <v>319.7573721701981</v>
@@ -36054,13 +36054,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O19" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P19" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q19" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36361,10 +36361,10 @@
         <v>337.1912865554004</v>
       </c>
       <c r="L23" t="n">
-        <v>795.4045397707671</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M23" t="n">
-        <v>538.9211158302265</v>
+        <v>666.4205505487556</v>
       </c>
       <c r="N23" t="n">
         <v>552.3018354129113</v>
@@ -36376,7 +36376,7 @@
         <v>398.7619862193716</v>
       </c>
       <c r="Q23" t="n">
-        <v>250.7943048037194</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R23" t="n">
         <v>59.61319854222472</v>
@@ -36598,25 +36598,25 @@
         <v>337.1912865554004</v>
       </c>
       <c r="L26" t="n">
-        <v>873.2513289427824</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M26" t="n">
-        <v>845.6086111391543</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N26" t="n">
-        <v>552.3018354129113</v>
+        <v>889.135417227823</v>
       </c>
       <c r="O26" t="n">
         <v>508.053000888219</v>
       </c>
       <c r="P26" t="n">
-        <v>398.7619862193716</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q26" t="n">
         <v>250.7943048037194</v>
       </c>
       <c r="R26" t="n">
-        <v>59.61319854222472</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,7 +36671,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>94.62350453597705</v>
+        <v>94.62350453597773</v>
       </c>
       <c r="K27" t="n">
         <v>240.6709080609567</v>
@@ -36832,25 +36832,25 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K29" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L29" t="n">
-        <v>507.7788647946658</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M29" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N29" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O29" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P29" t="n">
-        <v>398.7619862193719</v>
+        <v>675.9826703737876</v>
       </c>
       <c r="Q29" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R29" t="n">
         <v>125.3296184152072</v>
@@ -36908,28 +36908,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597773</v>
       </c>
       <c r="K30" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L30" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M30" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N30" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O30" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P30" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>92.5535532316588</v>
+        <v>92.55355323165877</v>
       </c>
       <c r="K31" t="n">
         <v>253.0227961629121</v>
@@ -36996,16 +36996,16 @@
         <v>366.7325087887907</v>
       </c>
       <c r="M31" t="n">
-        <v>394.6085160120764</v>
+        <v>394.6085160120763</v>
       </c>
       <c r="N31" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O31" t="n">
         <v>349.3282668412323</v>
       </c>
       <c r="P31" t="n">
-        <v>281.932207763703</v>
+        <v>281.9322077637029</v>
       </c>
       <c r="Q31" t="n">
         <v>125.3693751564862</v>
@@ -37072,16 +37072,16 @@
         <v>337.1912865554004</v>
       </c>
       <c r="L32" t="n">
-        <v>873.2513289427824</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M32" t="n">
         <v>538.9211158302265</v>
       </c>
       <c r="N32" t="n">
-        <v>858.9893307218366</v>
+        <v>830.1339441365603</v>
       </c>
       <c r="O32" t="n">
-        <v>508.053000888219</v>
+        <v>888.8531821509644</v>
       </c>
       <c r="P32" t="n">
         <v>398.7619862193716</v>
@@ -37090,7 +37090,7 @@
         <v>250.7943048037194</v>
       </c>
       <c r="R32" t="n">
-        <v>59.61319854222472</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37224,16 +37224,16 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>92.55355323165878</v>
+        <v>92.55355323165875</v>
       </c>
       <c r="K34" t="n">
         <v>253.0227961629121</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7325087887907</v>
+        <v>366.7325087887906</v>
       </c>
       <c r="M34" t="n">
-        <v>394.6085160120764</v>
+        <v>394.6085160120763</v>
       </c>
       <c r="N34" t="n">
         <v>391.8320827861326</v>
@@ -37242,10 +37242,10 @@
         <v>349.3282668412323</v>
       </c>
       <c r="P34" t="n">
-        <v>281.932207763703</v>
+        <v>281.9322077637029</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.3693751564858</v>
+        <v>125.3693751564862</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37622,7 +37622,7 @@
         <v>94.62350453597705</v>
       </c>
       <c r="K39" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609571</v>
       </c>
       <c r="L39" t="n">
         <v>370.4021821340053</v>
@@ -37640,7 +37640,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.2338966127279</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37783,13 +37783,13 @@
         <v>337.1912865554004</v>
       </c>
       <c r="L41" t="n">
-        <v>455.5901143923335</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M41" t="n">
         <v>538.9211158302265</v>
       </c>
       <c r="N41" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129119</v>
       </c>
       <c r="O41" t="n">
         <v>508.053000888219</v>
@@ -37856,7 +37856,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>94.62350453597705</v>
+        <v>94.62350453597743</v>
       </c>
       <c r="K42" t="n">
         <v>240.6709080609567</v>
@@ -37868,7 +37868,7 @@
         <v>451.7942679013291</v>
       </c>
       <c r="N42" t="n">
-        <v>478.3061046004595</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O42" t="n">
         <v>415.1124034525805</v>
@@ -38026,7 +38026,7 @@
         <v>538.9211158302265</v>
       </c>
       <c r="N44" t="n">
-        <v>552.3018354129138</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O44" t="n">
         <v>508.053000888219</v>
@@ -38035,7 +38035,7 @@
         <v>398.7619862193716</v>
       </c>
       <c r="Q44" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037204</v>
       </c>
       <c r="R44" t="n">
         <v>59.61319854222472</v>
@@ -38099,13 +38099,13 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340057</v>
       </c>
       <c r="M45" t="n">
         <v>451.7942679013291</v>
       </c>
       <c r="N45" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O45" t="n">
         <v>415.1124034525805</v>
